--- a/capiq_data/in_process_data/IQ139488.xlsx
+++ b/capiq_data/in_process_data/IQ139488.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B882A67-2198-407C-A160-EDCBF70F86A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC1AA5-D943-45FC-8AF1-4C5A330F57DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"6d7509f9-6d9d-491c-b0db-10eed10076ea"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c87f0d8e-8aec-45f3-a3cb-4337fb6c29f3"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1242.3</v>
+        <v>452</v>
       </c>
       <c r="D2">
-        <v>6214.1</v>
+        <v>3589.6</v>
       </c>
       <c r="E2">
-        <v>1179.0999999999999</v>
+        <v>796.5</v>
       </c>
       <c r="F2">
-        <v>2474.5</v>
+        <v>1125.3</v>
       </c>
       <c r="G2">
-        <v>4368.5</v>
+        <v>1662.4</v>
       </c>
       <c r="H2">
-        <v>31975.200000000001</v>
+        <v>21683.5</v>
       </c>
       <c r="I2">
-        <v>943.9</v>
+        <v>684.9</v>
       </c>
       <c r="J2">
-        <v>11497.3</v>
+        <v>7843.9</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>275.5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2924.7</v>
+        <v>2360.9</v>
       </c>
       <c r="O2">
-        <v>17341</v>
+        <v>12479.1</v>
       </c>
       <c r="P2">
-        <v>11505.6</v>
+        <v>8473.9</v>
       </c>
       <c r="Q2">
-        <v>-108</v>
+        <v>71.7</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>400000</v>
+        <v>364000</v>
       </c>
       <c r="T2">
-        <v>14634.2</v>
+        <v>9204.4</v>
       </c>
       <c r="U2">
-        <v>2387</v>
+        <v>421.7</v>
       </c>
       <c r="V2">
-        <v>1725.8</v>
+        <v>615.4</v>
       </c>
       <c r="W2">
-        <v>-643.5</v>
+        <v>-280.7</v>
       </c>
       <c r="X2">
-        <v>-1010.1</v>
+        <v>210.4</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,42 +931,42 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>1242.3</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1209</v>
+        <v>378.3</v>
       </c>
       <c r="D3">
-        <v>6111.6</v>
+        <v>3511.7</v>
       </c>
       <c r="E3">
-        <v>1160.3</v>
+        <v>793.9</v>
       </c>
       <c r="F3">
-        <v>2340.6</v>
+        <v>1071.4000000000001</v>
       </c>
       <c r="G3">
-        <v>3824.2</v>
+        <v>1667.4</v>
       </c>
       <c r="H3">
-        <v>32080.2</v>
+        <v>21449.200000000001</v>
       </c>
       <c r="I3">
-        <v>700.9</v>
+        <v>570.6</v>
       </c>
       <c r="J3">
-        <v>10530.7</v>
+        <v>7875.9</v>
       </c>
       <c r="K3">
-        <v>597.29999999999995</v>
+        <v>293.7</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,37 +975,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4254.1000000000004</v>
+        <v>2270.4</v>
       </c>
       <c r="O3">
-        <v>17626.599999999999</v>
+        <v>12518.4</v>
       </c>
       <c r="P3">
-        <v>12047.1</v>
+        <v>8560.4</v>
       </c>
       <c r="Q3">
-        <v>-447.1</v>
+        <v>-18.7</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>14453.6</v>
+        <v>8930.7999999999993</v>
       </c>
       <c r="U3">
-        <v>1939.9</v>
+        <v>403</v>
       </c>
       <c r="V3">
-        <v>1553.1</v>
+        <v>506.4</v>
       </c>
       <c r="W3">
-        <v>-635.1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-1512.3</v>
+        <v>-35</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>1209</v>
+        <v>378.3</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1410.2</v>
+        <v>440.9</v>
       </c>
       <c r="D4">
-        <v>6905.4</v>
+        <v>3707.5</v>
       </c>
       <c r="E4">
-        <v>1249.0999999999999</v>
+        <v>767</v>
       </c>
       <c r="F4">
-        <v>2725.6</v>
+        <v>1168</v>
       </c>
       <c r="G4">
-        <v>4025.4</v>
+        <v>1667.9</v>
       </c>
       <c r="H4">
-        <v>32833</v>
+        <v>21385.7</v>
       </c>
       <c r="I4">
-        <v>709.9</v>
+        <v>338</v>
       </c>
       <c r="J4">
-        <v>11063.8</v>
+        <v>8194</v>
       </c>
       <c r="K4">
-        <v>896.8</v>
+        <v>92.8</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3948.8</v>
+        <v>1679.9</v>
       </c>
       <c r="O4">
-        <v>17880.2</v>
+        <v>12142.2</v>
       </c>
       <c r="P4">
-        <v>12283.2</v>
+        <v>8571.4</v>
       </c>
       <c r="Q4">
-        <v>130.1</v>
+        <v>10.3</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>14952.8</v>
+        <v>9243.5</v>
       </c>
       <c r="U4">
-        <v>2070</v>
+        <v>413.3</v>
       </c>
       <c r="V4">
-        <v>1642.8</v>
+        <v>577</v>
       </c>
       <c r="W4">
-        <v>-632</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-1125.4000000000001</v>
+        <v>-81.7</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,81 +1097,81 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>1410.2</v>
+        <v>440.9</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1507.3</v>
+        <v>545.5</v>
       </c>
       <c r="D5">
-        <v>7166.3</v>
+        <v>3879.3</v>
       </c>
       <c r="E5">
-        <v>1203.9000000000001</v>
+        <v>790.2</v>
       </c>
       <c r="F5">
-        <v>2906.8</v>
+        <v>1235.0999999999999</v>
       </c>
       <c r="G5">
-        <v>4421.8999999999996</v>
+        <v>1769.9</v>
       </c>
       <c r="H5">
-        <v>32277.5</v>
+        <v>22305.3</v>
       </c>
       <c r="I5">
-        <v>750.1</v>
+        <v>520.70000000000005</v>
       </c>
       <c r="J5">
-        <v>10998.6</v>
+        <v>8685.2999999999993</v>
       </c>
       <c r="K5">
-        <v>816.1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-389.8</v>
       </c>
       <c r="N5">
-        <v>5078.2</v>
+        <v>1671.8</v>
       </c>
       <c r="O5">
-        <v>18939.3</v>
+        <v>12540.1</v>
       </c>
       <c r="P5">
-        <v>12540.1</v>
+        <v>8687.7999999999993</v>
       </c>
       <c r="Q5">
-        <v>318.8</v>
+        <v>62.3</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>13338.2</v>
+        <v>9765.2000000000007</v>
       </c>
       <c r="U5">
-        <v>2388.8000000000002</v>
+        <v>475.6</v>
       </c>
       <c r="V5">
-        <v>2169.6</v>
+        <v>988.1</v>
       </c>
       <c r="W5">
-        <v>-627.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-978.3</v>
+        <v>-493.4</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>1507.3</v>
+        <v>545.5</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1376.6</v>
+        <v>271.89999999999998</v>
       </c>
       <c r="D6">
-        <v>6822.7</v>
+        <v>3771.5</v>
       </c>
       <c r="E6">
-        <v>1334.7</v>
+        <v>881.9</v>
       </c>
       <c r="F6">
-        <v>2713.6</v>
+        <v>1141.5999999999999</v>
       </c>
       <c r="G6">
-        <v>4403</v>
+        <v>1819.3</v>
       </c>
       <c r="H6">
-        <v>32989.9</v>
+        <v>22534.5</v>
       </c>
       <c r="I6">
-        <v>961.3</v>
+        <v>689.5</v>
       </c>
       <c r="J6">
-        <v>12147.8</v>
+        <v>8555.5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>184.9</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3509.2</v>
+        <v>2248.3000000000002</v>
       </c>
       <c r="O6">
-        <v>18599.7</v>
+        <v>13046.1</v>
       </c>
       <c r="P6">
-        <v>12514.4</v>
+        <v>8918</v>
       </c>
       <c r="Q6">
-        <v>-53.1</v>
+        <v>-57.5</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>420000</v>
+        <v>395000</v>
       </c>
       <c r="T6">
-        <v>14390.2</v>
+        <v>9488.4</v>
       </c>
       <c r="U6">
-        <v>2335.6999999999998</v>
+        <v>418.1</v>
       </c>
       <c r="V6">
-        <v>1784.6</v>
+        <v>616.79999999999995</v>
       </c>
       <c r="W6">
-        <v>-715.4</v>
+        <v>-287.7</v>
       </c>
       <c r="X6">
-        <v>-917</v>
+        <v>-13.6</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,42 +1263,42 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>1376.6</v>
+        <v>271.89999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1266.7</v>
+        <v>253.1</v>
       </c>
       <c r="D7">
-        <v>6546.6</v>
+        <v>3597.4</v>
       </c>
       <c r="E7">
-        <v>1234.4000000000001</v>
+        <v>859.8</v>
       </c>
       <c r="F7">
-        <v>2517.5</v>
+        <v>1085.0999999999999</v>
       </c>
       <c r="G7">
-        <v>4254.8</v>
+        <v>1853.9</v>
       </c>
       <c r="H7">
-        <v>33334.199999999997</v>
+        <v>22195.599999999999</v>
       </c>
       <c r="I7">
-        <v>708.3</v>
+        <v>531.29999999999995</v>
       </c>
       <c r="J7">
-        <v>12055.7</v>
+        <v>8417.4</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>84.1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,37 +1307,37 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3646.4</v>
+        <v>2263.6</v>
       </c>
       <c r="O7">
-        <v>18673.7</v>
+        <v>12618.7</v>
       </c>
       <c r="P7">
-        <v>12779.9</v>
+        <v>8983.4</v>
       </c>
       <c r="Q7">
-        <v>-46.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>14660.5</v>
+        <v>9576.9</v>
       </c>
       <c r="U7">
-        <v>2289.1</v>
+        <v>437.7</v>
       </c>
       <c r="V7">
-        <v>1633.5</v>
+        <v>540.6</v>
       </c>
       <c r="W7">
-        <v>-712.3</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-1131.4000000000001</v>
+        <v>-110.5</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>1266.7</v>
+        <v>253.1</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1347</v>
+        <v>497.5</v>
       </c>
       <c r="D8">
-        <v>6915.9</v>
+        <v>3862.1</v>
       </c>
       <c r="E8">
-        <v>1290.5999999999999</v>
+        <v>903.5</v>
       </c>
       <c r="F8">
-        <v>2715.9</v>
+        <v>1202.2</v>
       </c>
       <c r="G8">
-        <v>4500.1000000000004</v>
+        <v>1950.9</v>
       </c>
       <c r="H8">
-        <v>33332.400000000001</v>
+        <v>23329</v>
       </c>
       <c r="I8">
-        <v>823.4</v>
+        <v>541.29999999999995</v>
       </c>
       <c r="J8">
-        <v>12720.4</v>
+        <v>9116.2999999999993</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,40 +1387,40 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-19.3</v>
       </c>
       <c r="N8">
-        <v>3622.3</v>
+        <v>2130.3000000000002</v>
       </c>
       <c r="O8">
-        <v>19297.3</v>
+        <v>12979.4</v>
       </c>
       <c r="P8">
-        <v>13573.3</v>
+        <v>9565.7000000000007</v>
       </c>
       <c r="Q8">
-        <v>195.5</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>14035.1</v>
+        <v>10349.6</v>
       </c>
       <c r="U8">
-        <v>2484.6</v>
+        <v>475.9</v>
       </c>
       <c r="V8">
-        <v>1483.1</v>
+        <v>662.6</v>
       </c>
       <c r="W8">
-        <v>-709.3</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-493.7</v>
+        <v>-61.9</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1347</v>
+        <v>497.5</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1455</v>
+        <v>486.7</v>
       </c>
       <c r="D9">
-        <v>7152.4</v>
+        <v>4047</v>
       </c>
       <c r="E9">
-        <v>1277.3</v>
+        <v>840</v>
       </c>
       <c r="F9">
-        <v>2854.6</v>
+        <v>1248</v>
       </c>
       <c r="G9">
-        <v>4207.8999999999996</v>
+        <v>1788.9</v>
       </c>
       <c r="H9">
-        <v>33824.5</v>
+        <v>23593.5</v>
       </c>
       <c r="I9">
-        <v>833.6</v>
+        <v>503.3</v>
       </c>
       <c r="J9">
-        <v>12752</v>
+        <v>9484.7999999999993</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,40 +1470,40 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-379.3</v>
+        <v>-246.4</v>
       </c>
       <c r="N9">
-        <v>4151.3</v>
+        <v>1865.9</v>
       </c>
       <c r="O9">
-        <v>19940.400000000001</v>
+        <v>12952</v>
       </c>
       <c r="P9">
-        <v>13264.1</v>
+        <v>9555</v>
       </c>
       <c r="Q9">
-        <v>-306.10000000000002</v>
+        <v>-52.5</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>13884.1</v>
+        <v>10641.5</v>
       </c>
       <c r="U9">
-        <v>2178.5</v>
+        <v>423.4</v>
       </c>
       <c r="V9">
-        <v>1999.4</v>
+        <v>1000.5</v>
       </c>
       <c r="W9">
-        <v>-703.8</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-1618.1</v>
+        <v>-416</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>1455</v>
+        <v>486.7</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>1396.1</v>
+        <v>-343.8</v>
       </c>
       <c r="D10">
-        <v>6952.1</v>
+        <v>3899.2</v>
       </c>
       <c r="E10">
-        <v>1375.3</v>
+        <v>855.3</v>
       </c>
       <c r="F10">
-        <v>2728.3</v>
+        <v>1123.7</v>
       </c>
       <c r="G10">
-        <v>4922.1000000000004</v>
+        <v>1715.4</v>
       </c>
       <c r="H10">
-        <v>35386.5</v>
+        <v>23970.5</v>
       </c>
       <c r="I10">
-        <v>1141.9000000000001</v>
+        <v>635.79999999999995</v>
       </c>
       <c r="J10">
-        <v>13632.5</v>
+        <v>9703.6</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3403.1</v>
+        <v>2422.3000000000002</v>
       </c>
       <c r="O10">
-        <v>20092.900000000001</v>
+        <v>13689.6</v>
       </c>
       <c r="P10">
-        <v>13632.5</v>
+        <v>9979.4</v>
       </c>
       <c r="Q10">
-        <v>157.6</v>
+        <v>-93</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>440000</v>
+        <v>413000</v>
       </c>
       <c r="T10">
-        <v>15293.6</v>
+        <v>10280.9</v>
       </c>
       <c r="U10">
-        <v>2336.1</v>
+        <v>330.4</v>
       </c>
       <c r="V10">
-        <v>1850.1</v>
+        <v>686.4</v>
       </c>
       <c r="W10">
-        <v>-771.2</v>
+        <v>-297.39999999999998</v>
       </c>
       <c r="X10">
-        <v>-606.6</v>
+        <v>77.2</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1396.1</v>
+        <v>-343.8</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1270.2</v>
+        <v>327.39999999999998</v>
       </c>
       <c r="D11">
-        <v>6605.3</v>
+        <v>3799.7</v>
       </c>
       <c r="E11">
-        <v>1230</v>
+        <v>816.7</v>
       </c>
       <c r="F11">
-        <v>2484.1</v>
+        <v>1067</v>
       </c>
       <c r="G11">
-        <v>4191.2</v>
+        <v>1841.8</v>
       </c>
       <c r="H11">
-        <v>34123.800000000003</v>
+        <v>24409.9</v>
       </c>
       <c r="I11">
-        <v>831.6</v>
+        <v>488</v>
       </c>
       <c r="J11">
-        <v>12797.9</v>
+        <v>9686.9</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-622.4</v>
+        <v>-46.8</v>
       </c>
       <c r="N11">
-        <v>3017.1</v>
+        <v>2323.5</v>
       </c>
       <c r="O11">
-        <v>18895.599999999999</v>
+        <v>13588.2</v>
       </c>
       <c r="P11">
-        <v>12797.9</v>
+        <v>10006</v>
       </c>
       <c r="Q11">
-        <v>-466.8</v>
+        <v>157.6</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>15228.2</v>
+        <v>10821.7</v>
       </c>
       <c r="U11">
-        <v>1869.3</v>
+        <v>488</v>
       </c>
       <c r="V11">
-        <v>1686.9</v>
+        <v>552.1</v>
       </c>
       <c r="W11">
-        <v>-772.2</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-1568.9</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1270.2</v>
+        <v>327.39999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1396.5</v>
+        <v>470.9</v>
       </c>
       <c r="D12">
-        <v>7083.8</v>
+        <v>4280.8</v>
       </c>
       <c r="E12">
-        <v>1301.9000000000001</v>
+        <v>807.1</v>
       </c>
       <c r="F12">
-        <v>2765.2</v>
+        <v>1305.8</v>
       </c>
       <c r="G12">
-        <v>4632.1000000000004</v>
+        <v>1904</v>
       </c>
       <c r="H12">
-        <v>34453.4</v>
+        <v>25092.9</v>
       </c>
       <c r="I12">
-        <v>805.2</v>
+        <v>533.4</v>
       </c>
       <c r="J12">
-        <v>13369.8</v>
+        <v>9447.1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,40 +1719,40 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-344.1</v>
       </c>
       <c r="N12">
-        <v>2805</v>
+        <v>2430.9</v>
       </c>
       <c r="O12">
-        <v>19282.7</v>
+        <v>13428.9</v>
       </c>
       <c r="P12">
-        <v>13369.8</v>
+        <v>9854</v>
       </c>
       <c r="Q12">
-        <v>409.1</v>
+        <v>32.4</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>15170.7</v>
+        <v>11664</v>
       </c>
       <c r="U12">
-        <v>2278.4</v>
+        <v>520.4</v>
       </c>
       <c r="V12">
-        <v>1509.8</v>
+        <v>685.9</v>
       </c>
       <c r="W12">
-        <v>-771.1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-525</v>
+        <v>-374.6</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1396.5</v>
+        <v>470.9</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1522.2</v>
+        <v>547.4</v>
       </c>
       <c r="D13">
-        <v>7323.4</v>
+        <v>4504.6000000000004</v>
       </c>
       <c r="E13">
-        <v>1285.3</v>
+        <v>703</v>
       </c>
       <c r="F13">
-        <v>2910.6</v>
+        <v>1428</v>
       </c>
       <c r="G13">
-        <v>4734.1000000000004</v>
+        <v>1938.5</v>
       </c>
       <c r="H13">
-        <v>35551.300000000003</v>
+        <v>25234.1</v>
       </c>
       <c r="I13">
-        <v>858.3</v>
+        <v>507</v>
       </c>
       <c r="J13">
-        <v>13487.8</v>
+        <v>9291.7000000000007</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,40 +1802,40 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-67.8</v>
+        <v>-530.79999999999995</v>
       </c>
       <c r="N13">
-        <v>3822.3</v>
+        <v>2633.4</v>
       </c>
       <c r="O13">
-        <v>20386.400000000001</v>
+        <v>13585.5</v>
       </c>
       <c r="P13">
-        <v>13487.8</v>
+        <v>9407.5</v>
       </c>
       <c r="Q13">
-        <v>265.89999999999998</v>
+        <v>127</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>15164.9</v>
+        <v>11648.6</v>
       </c>
       <c r="U13">
-        <v>2544.3000000000002</v>
+        <v>647.4</v>
       </c>
       <c r="V13">
-        <v>2050.5</v>
+        <v>1030.2</v>
       </c>
       <c r="W13">
-        <v>-767.5</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-1301.5999999999999</v>
+        <v>-638.70000000000005</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>1522.2</v>
+        <v>547.4</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>1397</v>
+        <v>125.7</v>
       </c>
       <c r="D14">
-        <v>7093.2</v>
+        <v>4555.3999999999996</v>
       </c>
       <c r="E14">
-        <v>1319.8</v>
+        <v>734.5</v>
       </c>
       <c r="F14">
-        <v>2742.8</v>
+        <v>1396</v>
       </c>
       <c r="G14">
-        <v>5050.1000000000004</v>
+        <v>1885.4</v>
       </c>
       <c r="H14">
-        <v>36626.300000000003</v>
+        <v>25838</v>
       </c>
       <c r="I14">
-        <v>1086</v>
+        <v>577.4</v>
       </c>
       <c r="J14">
-        <v>14141.8</v>
+        <v>9342.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3170</v>
+        <v>2748.5</v>
       </c>
       <c r="O14">
-        <v>20616.599999999999</v>
+        <v>13856.1</v>
       </c>
       <c r="P14">
-        <v>14141.8</v>
+        <v>9730.5</v>
       </c>
       <c r="Q14">
-        <v>254.4</v>
+        <v>-154.6</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>440000</v>
+        <v>418000</v>
       </c>
       <c r="T14">
-        <v>16009.7</v>
+        <v>11981.9</v>
       </c>
       <c r="U14">
-        <v>2798.7</v>
+        <v>492.8</v>
       </c>
       <c r="V14">
-        <v>1873.5</v>
+        <v>1000.6</v>
       </c>
       <c r="W14">
-        <v>-803.8</v>
+        <v>-503.5</v>
       </c>
       <c r="X14">
-        <v>-647.5</v>
+        <v>-690.7</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1397</v>
+        <v>125.7</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>1204.8</v>
+        <v>511.5</v>
       </c>
       <c r="D15">
-        <v>6700.3</v>
+        <v>4399.7</v>
       </c>
       <c r="E15">
-        <v>1229.7</v>
+        <v>655</v>
       </c>
       <c r="F15">
-        <v>2516.1</v>
+        <v>1325.9</v>
       </c>
       <c r="G15">
-        <v>4836.3</v>
+        <v>2315.3000000000002</v>
       </c>
       <c r="H15">
-        <v>36369.1</v>
+        <v>25817.9</v>
       </c>
       <c r="I15">
-        <v>828.1</v>
+        <v>492.7</v>
       </c>
       <c r="J15">
-        <v>13825.4</v>
+        <v>9114.2000000000007</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-235.1</v>
+        <v>-11.6</v>
       </c>
       <c r="N15">
-        <v>3101.2</v>
+        <v>2627.3</v>
       </c>
       <c r="O15">
-        <v>20221.400000000001</v>
+        <v>13449.5</v>
       </c>
       <c r="P15">
-        <v>13926.8</v>
+        <v>9749.1</v>
       </c>
       <c r="Q15">
-        <v>-54.9</v>
+        <v>476.8</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>16147.7</v>
+        <v>12368.4</v>
       </c>
       <c r="U15">
-        <v>2743.8</v>
+        <v>969.6</v>
       </c>
       <c r="V15">
-        <v>1907.3</v>
+        <v>865.1</v>
       </c>
       <c r="W15">
-        <v>-801.7</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-1355.1</v>
+        <v>-241</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,81 +2010,81 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>1204.8</v>
+        <v>511.5</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>1387.1</v>
+        <v>590.70000000000005</v>
       </c>
       <c r="D16">
-        <v>7181.7</v>
+        <v>4729</v>
       </c>
       <c r="E16">
-        <v>1294.5</v>
+        <v>694.4</v>
       </c>
       <c r="F16">
-        <v>2784.3</v>
+        <v>1497.8</v>
       </c>
       <c r="G16">
-        <v>5913.7</v>
+        <v>2330.5</v>
       </c>
       <c r="H16">
-        <v>37780.6</v>
+        <v>25473.200000000001</v>
       </c>
       <c r="I16">
-        <v>965.1</v>
+        <v>537.4</v>
       </c>
       <c r="J16">
-        <v>14891.4</v>
+        <v>8990.2000000000007</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-68.3</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>-425.8</v>
       </c>
       <c r="N16">
-        <v>3391.7</v>
+        <v>2074.8000000000002</v>
       </c>
       <c r="O16">
-        <v>21625.7</v>
+        <v>12810.9</v>
       </c>
       <c r="P16">
-        <v>15430.6</v>
+        <v>9144.2000000000007</v>
       </c>
       <c r="Q16">
-        <v>926.8</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>16154.9</v>
+        <v>12662.3</v>
       </c>
       <c r="U16">
-        <v>3670.6</v>
+        <v>930.8</v>
       </c>
       <c r="V16">
-        <v>1487</v>
+        <v>820.3</v>
       </c>
       <c r="W16">
-        <v>-800.6</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>51</v>
+        <v>-572.79999999999995</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>1387.1</v>
+        <v>590.70000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1068.4000000000001</v>
+        <v>778.4</v>
       </c>
       <c r="D17">
-        <v>6987.1</v>
+        <v>4925.7</v>
       </c>
       <c r="E17">
-        <v>1226.7</v>
+        <v>648.70000000000005</v>
       </c>
       <c r="F17">
-        <v>2681.2</v>
+        <v>1586.5</v>
       </c>
       <c r="G17">
-        <v>5210.3999999999996</v>
+        <v>2907.8</v>
       </c>
       <c r="H17">
-        <v>36020.800000000003</v>
+        <v>26338.3</v>
       </c>
       <c r="I17">
-        <v>847.3</v>
+        <v>529.4</v>
       </c>
       <c r="J17">
-        <v>14516.9</v>
+        <v>8692.7000000000007</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,40 +2134,40 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-6</v>
+        <v>-342.3</v>
       </c>
       <c r="N17">
-        <v>4179.6000000000004</v>
+        <v>2952</v>
       </c>
       <c r="O17">
-        <v>22394.9</v>
+        <v>13377.7</v>
       </c>
       <c r="P17">
-        <v>15130.2</v>
+        <v>8863.2999999999993</v>
       </c>
       <c r="Q17">
-        <v>-844.8</v>
+        <v>626.1</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>13625.9</v>
+        <v>12960.6</v>
       </c>
       <c r="U17">
-        <v>2825.8</v>
+        <v>1556.9</v>
       </c>
       <c r="V17">
-        <v>1832.9</v>
+        <v>1270.8</v>
       </c>
       <c r="W17">
-        <v>-793</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-1542.4</v>
+        <v>-333.6</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>1068.4000000000001</v>
+        <v>778.4</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>1097.5</v>
+        <v>397.9</v>
       </c>
       <c r="D18">
-        <v>6572.2</v>
+        <v>5010.3</v>
       </c>
       <c r="E18">
-        <v>1214.4000000000001</v>
+        <v>745.5</v>
       </c>
       <c r="F18">
-        <v>2474.1</v>
+        <v>1551.5</v>
       </c>
       <c r="G18">
-        <v>4185.5</v>
+        <v>2857.8</v>
       </c>
       <c r="H18">
-        <v>34227.4</v>
+        <v>27837.5</v>
       </c>
       <c r="I18">
-        <v>860.1</v>
+        <v>714.3</v>
       </c>
       <c r="J18">
-        <v>14943.2</v>
+        <v>8357.2999999999993</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2747.9</v>
+        <v>3520.5</v>
       </c>
       <c r="O18">
-        <v>21374</v>
+        <v>13636</v>
       </c>
       <c r="P18">
-        <v>14943.2</v>
+        <v>9219.5</v>
       </c>
       <c r="Q18">
-        <v>-747.9</v>
+        <v>-177.1</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>420000</v>
+        <v>438000</v>
       </c>
       <c r="T18">
-        <v>12853.4</v>
+        <v>14201.5</v>
       </c>
       <c r="U18">
-        <v>2077.9</v>
+        <v>1379.8</v>
       </c>
       <c r="V18">
-        <v>1503.1</v>
+        <v>947.4</v>
       </c>
       <c r="W18">
-        <v>-820.8</v>
+        <v>-695</v>
       </c>
       <c r="X18">
-        <v>-1771.8</v>
+        <v>-486.1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2259,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>1097.5</v>
+        <v>397.9</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>811.5</v>
+        <v>727.9</v>
       </c>
       <c r="D19">
-        <v>5958.9</v>
+        <v>4802.8</v>
       </c>
       <c r="E19">
-        <v>1091.8</v>
+        <v>686.3</v>
       </c>
       <c r="F19">
-        <v>2201</v>
+        <v>1436.7</v>
       </c>
       <c r="G19">
-        <v>3592.8</v>
+        <v>2797.5</v>
       </c>
       <c r="H19">
-        <v>32155.599999999999</v>
+        <v>27234</v>
       </c>
       <c r="I19">
-        <v>702</v>
+        <v>495.4</v>
       </c>
       <c r="J19">
-        <v>14291.8</v>
+        <v>8155.2</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-545.29999999999995</v>
+        <v>-358.2</v>
       </c>
       <c r="N19">
-        <v>2751.9</v>
+        <v>2669.2</v>
       </c>
       <c r="O19">
-        <v>20752.3</v>
+        <v>12596.4</v>
       </c>
       <c r="P19">
-        <v>14291.8</v>
+        <v>8658.7999999999993</v>
       </c>
       <c r="Q19">
-        <v>-443.1</v>
+        <v>-23.3</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>11403.3</v>
+        <v>14637.6</v>
       </c>
       <c r="U19">
-        <v>1634.8</v>
+        <v>1356.5</v>
       </c>
       <c r="V19">
-        <v>1699.5</v>
+        <v>793</v>
       </c>
       <c r="W19">
-        <v>-816.3</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-1593.3</v>
+        <v>-531.1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,81 +2342,81 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>811.5</v>
+        <v>727.9</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1202.4000000000001</v>
+        <v>530.4</v>
       </c>
       <c r="D20">
-        <v>6497.7</v>
+        <v>5095.7</v>
       </c>
       <c r="E20">
-        <v>1178.5999999999999</v>
+        <v>756.5</v>
       </c>
       <c r="F20">
-        <v>2490.4</v>
+        <v>1579.3</v>
       </c>
       <c r="G20">
-        <v>5972.2</v>
+        <v>3041.6</v>
       </c>
       <c r="H20">
-        <v>34947.9</v>
+        <v>26980.3</v>
       </c>
       <c r="I20">
-        <v>840.1</v>
+        <v>528.70000000000005</v>
       </c>
       <c r="J20">
-        <v>17901.599999999999</v>
+        <v>7763.7</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>-293.8</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>-501.4</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2760.8</v>
+        <v>3075.2</v>
       </c>
       <c r="O20">
-        <v>24387</v>
+        <v>12619.7</v>
       </c>
       <c r="P20">
-        <v>17901.599999999999</v>
+        <v>8556.9</v>
       </c>
       <c r="Q20">
-        <v>2363.6999999999998</v>
+        <v>204.1</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>10560.9</v>
+        <v>14360.6</v>
       </c>
       <c r="U20">
-        <v>3998.5</v>
+        <v>1560.6</v>
       </c>
       <c r="V20">
-        <v>1513.5</v>
+        <v>952.5</v>
       </c>
       <c r="W20">
-        <v>-811</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1087.5999999999999</v>
+        <v>-384.6</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>1202.4000000000001</v>
+        <v>530.4</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1309.2</v>
+        <v>735.4</v>
       </c>
       <c r="D21">
-        <v>6615.1</v>
+        <v>5327.1</v>
       </c>
       <c r="E21">
-        <v>1136.2</v>
+        <v>755.4</v>
       </c>
       <c r="F21">
-        <v>2591.3000000000002</v>
+        <v>1680.6</v>
       </c>
       <c r="G21">
-        <v>4492.6000000000004</v>
+        <v>3801.8</v>
       </c>
       <c r="H21">
-        <v>32959.5</v>
+        <v>27843.599999999999</v>
       </c>
       <c r="I21">
-        <v>802.6</v>
+        <v>524.1</v>
       </c>
       <c r="J21">
-        <v>17990.5</v>
+        <v>7350.2</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,40 +2466,40 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-6.2</v>
+        <v>-406.8</v>
       </c>
       <c r="N21">
-        <v>2956.5</v>
+        <v>4134.7</v>
       </c>
       <c r="O21">
-        <v>24649.7</v>
+        <v>13327.4</v>
       </c>
       <c r="P21">
-        <v>17990.5</v>
+        <v>8064.9</v>
       </c>
       <c r="Q21">
-        <v>-1546</v>
+        <v>736.5</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>8309.7999999999993</v>
+        <v>14516.2</v>
       </c>
       <c r="U21">
-        <v>2452.5</v>
+        <v>2297.1</v>
       </c>
       <c r="V21">
-        <v>1947.4</v>
+        <v>1463.3</v>
       </c>
       <c r="W21">
-        <v>-789.1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-2978.6</v>
+        <v>-244.9</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>1309.2</v>
+        <v>735.4</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>1206.2</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>6341.3</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1298.7</v>
+        <v>793.9</v>
       </c>
       <c r="F22">
-        <v>2506.5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>9643</v>
+        <v>6219</v>
       </c>
       <c r="H22">
-        <v>37938.699999999997</v>
+        <v>29988.799999999999</v>
       </c>
       <c r="I22">
-        <v>874.7</v>
+        <v>678</v>
       </c>
       <c r="J22">
-        <v>24125.5</v>
+        <v>8934.2999999999993</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2950.4</v>
+        <v>4107.7</v>
       </c>
       <c r="O22">
-        <v>30850.799999999999</v>
+        <v>14842.7</v>
       </c>
       <c r="P22">
-        <v>24125.5</v>
+        <v>10136.799999999999</v>
       </c>
       <c r="Q22">
-        <v>5233</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>420000</v>
+        <v>447000</v>
       </c>
       <c r="T22">
-        <v>7087.9</v>
+        <v>15146.1</v>
       </c>
       <c r="U22">
-        <v>7685.5</v>
+        <v>4260.6000000000004</v>
       </c>
       <c r="V22">
-        <v>1378.7</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-813.9</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>4219.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1206.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1124.8</v>
+        <v>625.29999999999995</v>
       </c>
       <c r="D23">
-        <v>5903.9</v>
+        <v>4913.8999999999996</v>
       </c>
       <c r="E23">
-        <v>1162.0999999999999</v>
+        <v>742.4</v>
       </c>
       <c r="F23">
-        <v>2313.5</v>
+        <v>1517.5</v>
       </c>
       <c r="G23">
-        <v>5051.6000000000004</v>
+        <v>5268.3</v>
       </c>
       <c r="H23">
-        <v>33795.4</v>
+        <v>29601.3</v>
       </c>
       <c r="I23">
-        <v>654.5</v>
+        <v>586.29999999999995</v>
       </c>
       <c r="J23">
-        <v>23352.6</v>
+        <v>8708.9</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>529.1</v>
       </c>
       <c r="L23">
-        <v>-809.6</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-213.5</v>
+        <v>-323.7</v>
       </c>
       <c r="N23">
-        <v>2858.7</v>
+        <v>3696.8</v>
       </c>
       <c r="O23">
-        <v>29932.400000000001</v>
+        <v>14434.3</v>
       </c>
       <c r="P23">
-        <v>23352.6</v>
+        <v>9911.4</v>
       </c>
       <c r="Q23">
-        <v>-4375.3999999999996</v>
+        <v>-591</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3863</v>
+        <v>15167</v>
       </c>
       <c r="U23">
-        <v>3310.1</v>
+        <v>3803.1</v>
       </c>
       <c r="V23">
-        <v>1745.2</v>
+        <v>614.79999999999995</v>
       </c>
       <c r="W23">
-        <v>-780.8</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-5978.7</v>
+        <v>-1046.9000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,81 +2674,81 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>1124.8</v>
+        <v>625.29999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>1092.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>6265</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1267.0999999999999</v>
+        <v>858</v>
       </c>
       <c r="F24">
-        <v>2586</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>5046.6000000000004</v>
+        <v>4861</v>
       </c>
       <c r="H24">
-        <v>33146.5</v>
+        <v>29773</v>
       </c>
       <c r="I24">
-        <v>574.6</v>
+        <v>556.70000000000005</v>
       </c>
       <c r="J24">
-        <v>26010</v>
+        <v>8351.4</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>553.20000000000005</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-600.4</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2667.2</v>
+        <v>3591.8</v>
       </c>
       <c r="O24">
-        <v>32506.5</v>
+        <v>14134.3</v>
       </c>
       <c r="P24">
-        <v>26010</v>
+        <v>9506.5</v>
       </c>
       <c r="Q24">
-        <v>-182.1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>640</v>
+        <v>15638.7</v>
       </c>
       <c r="U24">
-        <v>3128</v>
+        <v>3290.4</v>
       </c>
       <c r="V24">
-        <v>1248.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>-759.3</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-1136.8</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,81 +2757,81 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>1092.9000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1275.4000000000001</v>
+        <v>843.3</v>
       </c>
       <c r="D25">
-        <v>6424.1</v>
+        <v>5503.2</v>
       </c>
       <c r="E25">
-        <v>1349.8</v>
+        <v>812.5</v>
       </c>
       <c r="F25">
-        <v>2747</v>
+        <v>1875.2</v>
       </c>
       <c r="G25">
-        <v>4302.1000000000004</v>
+        <v>5835.7</v>
       </c>
       <c r="H25">
-        <v>32486.9</v>
+        <v>30829.200000000001</v>
       </c>
       <c r="I25">
-        <v>852.2</v>
+        <v>603.4</v>
       </c>
       <c r="J25">
-        <v>26007</v>
+        <v>8569.4</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="L25">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>-5.7</v>
+        <v>-312.8</v>
       </c>
       <c r="N25">
-        <v>4476.7</v>
+        <v>4576.3</v>
       </c>
       <c r="O25">
-        <v>34111</v>
+        <v>15302.9</v>
       </c>
       <c r="P25">
-        <v>26007</v>
+        <v>9188.6</v>
       </c>
       <c r="Q25">
-        <v>-861.3</v>
+        <v>975.6</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>-1624.1</v>
+        <v>15526.3</v>
       </c>
       <c r="U25">
-        <v>2266.6999999999998</v>
+        <v>4282.7</v>
       </c>
       <c r="V25">
-        <v>2251.1</v>
+        <v>1510.6</v>
       </c>
       <c r="W25">
-        <v>-745.1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-2775.7</v>
+        <v>-95</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>1275.4000000000001</v>
+        <v>843.3</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>1193.4000000000001</v>
+        <v>1241.5</v>
       </c>
       <c r="D26">
-        <v>6028.9</v>
+        <v>5445.3</v>
       </c>
       <c r="E26">
-        <v>1474.1</v>
+        <v>806.9</v>
       </c>
       <c r="F26">
-        <v>2558.1999999999998</v>
+        <v>1824.2</v>
       </c>
       <c r="G26">
-        <v>4848.6000000000004</v>
+        <v>5192.2</v>
       </c>
       <c r="H26">
-        <v>31023.9</v>
+        <v>28974.5</v>
       </c>
       <c r="I26">
-        <v>756</v>
+        <v>668.7</v>
       </c>
       <c r="J26">
-        <v>25880.1</v>
+        <v>8389.9</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3468.3</v>
+        <v>2951.6</v>
       </c>
       <c r="O26">
-        <v>33228.199999999997</v>
+        <v>13516.2</v>
       </c>
       <c r="P26">
-        <v>25957.3</v>
+        <v>8407.6</v>
       </c>
       <c r="Q26">
-        <v>-1043.3</v>
+        <v>-1986.9</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>375000</v>
+        <v>465000</v>
       </c>
       <c r="T26">
-        <v>-2204.3000000000002</v>
+        <v>15458.3</v>
       </c>
       <c r="U26">
-        <v>1223.4000000000001</v>
+        <v>2128.1</v>
       </c>
       <c r="V26">
-        <v>814.9</v>
+        <v>1336.6</v>
       </c>
       <c r="W26">
-        <v>-773</v>
+        <v>-1216.5</v>
       </c>
       <c r="X26">
-        <v>-1371.2</v>
+        <v>-2873.4</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>1193.4000000000001</v>
+        <v>1241.5</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1214.8</v>
+        <v>762.4</v>
       </c>
       <c r="D27">
-        <v>5675.9</v>
+        <v>5292.7</v>
       </c>
       <c r="E27">
-        <v>1336.7</v>
+        <v>848</v>
       </c>
       <c r="F27">
-        <v>2429.4</v>
+        <v>1723.7</v>
       </c>
       <c r="G27">
-        <v>5907.2</v>
+        <v>3879.4</v>
       </c>
       <c r="H27">
-        <v>32120.3</v>
+        <v>29473.5</v>
       </c>
       <c r="I27">
-        <v>678.4</v>
+        <v>669.2</v>
       </c>
       <c r="J27">
-        <v>26984.2</v>
+        <v>8199.9</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-769.2</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-402.1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3220.7</v>
+        <v>3064.5</v>
       </c>
       <c r="O27">
-        <v>34151.1</v>
+        <v>13706.5</v>
       </c>
       <c r="P27">
-        <v>27207.1</v>
+        <v>8813.4</v>
       </c>
       <c r="Q27">
-        <v>1188.8</v>
+        <v>300.5</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>-2030.8</v>
+        <v>15767</v>
       </c>
       <c r="U27">
-        <v>2412.1999999999998</v>
+        <v>2438.4</v>
       </c>
       <c r="V27">
-        <v>1544</v>
+        <v>928.4</v>
       </c>
       <c r="W27">
-        <v>-770.6</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-587.20000000000005</v>
+        <v>-237.4</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,81 +3006,81 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>1214.8</v>
+        <v>762.4</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1395.1</v>
+        <v>-711.7</v>
       </c>
       <c r="D28">
-        <v>6049.7</v>
+        <v>5839.4</v>
       </c>
       <c r="E28">
-        <v>1457.3</v>
+        <v>784.6</v>
       </c>
       <c r="F28">
-        <v>2708.4</v>
+        <v>1999.7</v>
       </c>
       <c r="G28">
-        <v>5892.5</v>
+        <v>4361.3999999999996</v>
       </c>
       <c r="H28">
-        <v>32785.199999999997</v>
+        <v>28994.9</v>
       </c>
       <c r="I28">
-        <v>536</v>
+        <v>516.70000000000005</v>
       </c>
       <c r="J28">
-        <v>28150.9</v>
+        <v>7885.5</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>-1.4</v>
+        <v>-626.9</v>
       </c>
       <c r="N28">
-        <v>2743.3</v>
+        <v>3429.6</v>
       </c>
       <c r="O28">
-        <v>34785.800000000003</v>
+        <v>13909.2</v>
       </c>
       <c r="P28">
-        <v>28360.799999999999</v>
+        <v>8173.7</v>
       </c>
       <c r="Q28">
-        <v>-19.8</v>
+        <v>-295.7</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>-2000.6</v>
+        <v>15085.7</v>
       </c>
       <c r="U28">
-        <v>2392.4</v>
+        <v>2142.1</v>
       </c>
       <c r="V28">
-        <v>1213.4000000000001</v>
+        <v>1082.3</v>
       </c>
       <c r="W28">
-        <v>-761.5</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-1166.5</v>
+        <v>-959</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,81 +3089,81 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>1395.1</v>
+        <v>-711.7</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1883.7</v>
+        <v>1071.2</v>
       </c>
       <c r="D29">
-        <v>5754.6</v>
+        <v>5900.9</v>
       </c>
       <c r="E29">
-        <v>1569</v>
+        <v>788</v>
       </c>
       <c r="F29">
-        <v>2817.5</v>
+        <v>2121.1999999999998</v>
       </c>
       <c r="G29">
-        <v>4790.3</v>
+        <v>4444.5</v>
       </c>
       <c r="H29">
-        <v>32559.599999999999</v>
+        <v>29673.599999999999</v>
       </c>
       <c r="I29">
-        <v>685.2</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="J29">
-        <v>28402.6</v>
+        <v>7685.9</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>-55.8</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>-3.6</v>
+        <v>-654.9</v>
       </c>
       <c r="N29">
-        <v>3740.2</v>
+        <v>4209.3</v>
       </c>
       <c r="O29">
-        <v>36037.199999999997</v>
+        <v>14705.7</v>
       </c>
       <c r="P29">
-        <v>28618.400000000001</v>
+        <v>7747.1</v>
       </c>
       <c r="Q29">
-        <v>278.8</v>
+        <v>859.6</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>-3477.6</v>
+        <v>14967.9</v>
       </c>
       <c r="U29">
-        <v>2671.2</v>
+        <v>2992.5</v>
       </c>
       <c r="V29">
-        <v>1684.5</v>
+        <v>1580.9</v>
       </c>
       <c r="W29">
-        <v>-755.3</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-2810</v>
+        <v>-1249.9000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>1883.7</v>
+        <v>1071.2</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>698.7</v>
+        <v>1273.2</v>
       </c>
       <c r="D30">
-        <v>5340.2</v>
+        <v>5753.6</v>
       </c>
       <c r="E30">
-        <v>1976.2</v>
+        <v>1053.8</v>
       </c>
       <c r="F30">
-        <v>2665.5</v>
+        <v>2060.6</v>
       </c>
       <c r="G30">
-        <v>5327.2</v>
+        <v>3581.9</v>
       </c>
       <c r="H30">
-        <v>33803.699999999997</v>
+        <v>29391.7</v>
       </c>
       <c r="I30">
-        <v>924.8</v>
+        <v>624.1</v>
       </c>
       <c r="J30">
-        <v>29542.3</v>
+        <v>7310</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1126.5999999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2890.6</v>
+        <v>4498.5</v>
       </c>
       <c r="O30">
-        <v>37071.699999999997</v>
+        <v>14111.9</v>
       </c>
       <c r="P30">
-        <v>29542.6</v>
+        <v>9301.1</v>
       </c>
       <c r="Q30">
-        <v>-207.4</v>
+        <v>-1011.2</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>235000</v>
+        <v>390000</v>
       </c>
       <c r="T30">
-        <v>-3268</v>
+        <v>15279.8</v>
       </c>
       <c r="U30">
-        <v>2463.8000000000002</v>
+        <v>1981.3</v>
       </c>
       <c r="V30">
-        <v>1109.3</v>
+        <v>1284.7</v>
       </c>
       <c r="W30">
-        <v>-801.8</v>
+        <v>-1765.6</v>
       </c>
       <c r="X30">
-        <v>-747.1</v>
+        <v>-1550</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>698.7</v>
+        <v>1273.2</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1375.4</v>
+        <v>946.1</v>
       </c>
       <c r="D31">
-        <v>5138.8999999999996</v>
+        <v>5614.8</v>
       </c>
       <c r="E31">
-        <v>1951.6</v>
+        <v>895.9</v>
       </c>
       <c r="F31">
-        <v>2527.6999999999998</v>
+        <v>1975.4</v>
       </c>
       <c r="G31">
-        <v>4909.3</v>
+        <v>4325.6000000000004</v>
       </c>
       <c r="H31">
-        <v>33722.9</v>
+        <v>30922</v>
       </c>
       <c r="I31">
-        <v>779.9</v>
+        <v>579.6</v>
       </c>
       <c r="J31">
-        <v>30887</v>
+        <v>10443.6</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1001.6</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2821.4</v>
+        <v>3683.3</v>
       </c>
       <c r="O31">
-        <v>38441.699999999997</v>
+        <v>16507.8</v>
       </c>
       <c r="P31">
-        <v>30888</v>
+        <v>11733.9</v>
       </c>
       <c r="Q31">
-        <v>4.2</v>
+        <v>940.9</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-4718.8</v>
+        <v>14414.2</v>
       </c>
       <c r="U31">
-        <v>2468</v>
+        <v>2922.2</v>
       </c>
       <c r="V31">
-        <v>1645.2</v>
+        <v>1478.5</v>
       </c>
       <c r="W31">
-        <v>-797.5</v>
+        <v>-426.4</v>
       </c>
       <c r="X31">
-        <v>-1306.2</v>
+        <v>-281.39999999999998</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,164 +3338,164 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>1375.4</v>
+        <v>946.1</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1496.3</v>
+        <v>1190.5</v>
       </c>
       <c r="D32">
-        <v>5353.9</v>
+        <v>6075.3</v>
       </c>
       <c r="E32">
-        <v>2217.1999999999998</v>
+        <v>1030.5999999999999</v>
       </c>
       <c r="F32">
-        <v>2739.5</v>
+        <v>2224.8000000000002</v>
       </c>
       <c r="G32">
-        <v>4355.6000000000004</v>
+        <v>3883.3</v>
       </c>
       <c r="H32">
-        <v>32708.400000000001</v>
+        <v>30521.3</v>
       </c>
       <c r="I32">
-        <v>917.9</v>
+        <v>601.4</v>
       </c>
       <c r="J32">
-        <v>30709.3</v>
+        <v>10439.1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>372.4</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-1.2</v>
+        <v>-575.6</v>
       </c>
       <c r="N32">
-        <v>2970.3</v>
+        <v>3025.2</v>
       </c>
       <c r="O32">
-        <v>38559.4</v>
+        <v>15899.7</v>
       </c>
       <c r="P32">
-        <v>31002.3</v>
+        <v>11060.5</v>
       </c>
       <c r="Q32">
-        <v>-844.5</v>
+        <v>-579.70000000000005</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-5851</v>
+        <v>14621.6</v>
       </c>
       <c r="U32">
-        <v>1623.5</v>
+        <v>2342.5</v>
       </c>
       <c r="V32">
-        <v>1338.8</v>
+        <v>1262</v>
       </c>
       <c r="W32">
-        <v>-786.1</v>
+        <v>-421.6</v>
       </c>
       <c r="X32">
-        <v>-1564.2</v>
+        <v>-1672.7</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>229.4</v>
       </c>
       <c r="AA32">
-        <v>1496.3</v>
+        <v>1190.5</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1637.3</v>
+        <v>1191.3</v>
       </c>
       <c r="D33">
-        <v>5369.4</v>
+        <v>6267.3</v>
       </c>
       <c r="E33">
-        <v>2266.8000000000002</v>
+        <v>856.8</v>
       </c>
       <c r="F33">
-        <v>2822.1</v>
+        <v>2363.1999999999998</v>
       </c>
       <c r="G33">
-        <v>5553.1</v>
+        <v>2811.6</v>
       </c>
       <c r="H33">
-        <v>34053.699999999997</v>
+        <v>28134.400000000001</v>
       </c>
       <c r="I33">
-        <v>932.8</v>
+        <v>481</v>
       </c>
       <c r="J33">
-        <v>31922.9</v>
+        <v>9860.6</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>-801.4</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>-1.9</v>
+        <v>-782.3</v>
       </c>
       <c r="N33">
-        <v>3626.7</v>
+        <v>2868.5</v>
       </c>
       <c r="O33">
-        <v>40846.300000000003</v>
+        <v>15082.8</v>
       </c>
       <c r="P33">
-        <v>31923.5</v>
+        <v>9878.6</v>
       </c>
       <c r="Q33">
-        <v>951</v>
+        <v>-855.3</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>-6792.6</v>
+        <v>13051.6</v>
       </c>
       <c r="U33">
-        <v>2574.5</v>
+        <v>1487.2</v>
       </c>
       <c r="V33">
-        <v>2471.1</v>
+        <v>1706.4</v>
       </c>
       <c r="W33">
-        <v>-779.8</v>
+        <v>-417.7</v>
       </c>
       <c r="X33">
-        <v>-768</v>
+        <v>-1968.2</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>1637.3</v>
+        <v>1191.3</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>1415.3</v>
+        <v>985.3</v>
       </c>
       <c r="D34">
-        <v>5163</v>
+        <v>5565</v>
       </c>
       <c r="E34">
-        <v>2441.5</v>
+        <v>931.2</v>
       </c>
       <c r="F34">
-        <v>2696.7</v>
+        <v>2075.8000000000002</v>
       </c>
       <c r="G34">
-        <v>4053.2</v>
+        <v>3517.6</v>
       </c>
       <c r="H34">
-        <v>32811.199999999997</v>
+        <v>28461.5</v>
       </c>
       <c r="I34">
-        <v>1207.9000000000001</v>
+        <v>620.4</v>
       </c>
       <c r="J34">
-        <v>31087.1</v>
+        <v>10189.5</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2973.5</v>
+        <v>2537.9</v>
       </c>
       <c r="O34">
-        <v>39069.599999999999</v>
+        <v>15078.9</v>
       </c>
       <c r="P34">
-        <v>31087.200000000001</v>
+        <v>10221.299999999999</v>
       </c>
       <c r="Q34">
-        <v>-1708.5</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>210000</v>
+        <v>400000</v>
       </c>
       <c r="T34">
-        <v>-6258.4</v>
+        <v>13382.6</v>
       </c>
       <c r="U34">
-        <v>866</v>
+        <v>2063.4</v>
       </c>
       <c r="V34">
-        <v>1511.6</v>
+        <v>1470.3</v>
       </c>
       <c r="W34">
-        <v>-892.5</v>
+        <v>-557.70000000000005</v>
       </c>
       <c r="X34">
-        <v>-2311.1999999999998</v>
+        <v>-192.2</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,288 +3587,288 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>1415.3</v>
+        <v>985.3</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1328.4</v>
+        <v>979.5</v>
       </c>
       <c r="D35">
-        <v>5024.1000000000004</v>
+        <v>5077.3999999999996</v>
       </c>
       <c r="E35">
-        <v>1992.7</v>
+        <v>903.4</v>
       </c>
       <c r="F35">
-        <v>2551.5</v>
+        <v>1860.2</v>
       </c>
       <c r="G35">
-        <v>4964.3999999999996</v>
+        <v>3450.4</v>
       </c>
       <c r="H35">
-        <v>46466.6</v>
+        <v>27810.6</v>
       </c>
       <c r="I35">
-        <v>823.6</v>
+        <v>488.8</v>
       </c>
       <c r="J35">
-        <v>32896.699999999997</v>
+        <v>10420.1</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-415</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>3379.6</v>
+        <v>2212.9</v>
       </c>
       <c r="O35">
-        <v>53017.5</v>
+        <v>15127.5</v>
       </c>
       <c r="P35">
-        <v>45294.1</v>
+        <v>10439.1</v>
       </c>
       <c r="Q35">
-        <v>1423.1</v>
+        <v>-84.7</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-6550.9</v>
+        <v>12683.1</v>
       </c>
       <c r="U35">
-        <v>2289.1</v>
+        <v>1978.7</v>
       </c>
       <c r="V35">
-        <v>2020.6</v>
+        <v>1130.7</v>
       </c>
       <c r="W35">
-        <v>-886.8</v>
+        <v>-553.4</v>
       </c>
       <c r="X35">
-        <v>220.7</v>
+        <v>-819.7</v>
       </c>
       <c r="Y35">
-        <v>11629.5</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AA35">
-        <v>1328.4</v>
+        <v>979.5</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1516.9</v>
+        <v>1093.7</v>
       </c>
       <c r="D36">
-        <v>5409.8</v>
+        <v>5647.2</v>
       </c>
       <c r="E36">
-        <v>2055</v>
+        <v>930.5</v>
       </c>
       <c r="F36">
-        <v>2842.6</v>
+        <v>2169.9</v>
       </c>
       <c r="G36">
-        <v>3915.4</v>
+        <v>3597</v>
       </c>
       <c r="H36">
-        <v>46199.8</v>
+        <v>29207.1</v>
       </c>
       <c r="I36">
-        <v>796.8</v>
+        <v>489.8</v>
       </c>
       <c r="J36">
-        <v>32654.3</v>
+        <v>10492.9</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-981.2</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>3240</v>
+        <v>2843.5</v>
       </c>
       <c r="O36">
-        <v>53008.6</v>
+        <v>15962.5</v>
       </c>
       <c r="P36">
-        <v>45293.1</v>
+        <v>11000.5</v>
       </c>
       <c r="Q36">
-        <v>-1154.5999999999999</v>
+        <v>181.9</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>-6808.8</v>
+        <v>13244.6</v>
       </c>
       <c r="U36">
-        <v>1134.5</v>
+        <v>2160.6</v>
       </c>
       <c r="V36">
-        <v>1925.5</v>
+        <v>1420.1</v>
       </c>
       <c r="W36">
-        <v>-883</v>
+        <v>-547.79999999999995</v>
       </c>
       <c r="X36">
-        <v>-2196.1</v>
+        <v>-1005.9</v>
       </c>
       <c r="Y36">
-        <v>11895.4</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>125.3</v>
       </c>
       <c r="AA36">
-        <v>1516.9</v>
+        <v>1093.7</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1607.9</v>
+        <v>1261</v>
       </c>
       <c r="D37">
-        <v>5502.3</v>
+        <v>6046.7</v>
       </c>
       <c r="E37">
-        <v>2005.3</v>
+        <v>879.4</v>
       </c>
       <c r="F37">
-        <v>2917.6</v>
+        <v>2408.3000000000002</v>
       </c>
       <c r="G37">
-        <v>3604.9</v>
+        <v>3602.8</v>
       </c>
       <c r="H37">
-        <v>45805</v>
+        <v>30072.400000000001</v>
       </c>
       <c r="I37">
-        <v>849.5</v>
+        <v>515.6</v>
       </c>
       <c r="J37">
-        <v>32850.1</v>
+        <v>10659.6</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>-600.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>-667.9</v>
+        <v>-99</v>
       </c>
       <c r="N37">
-        <v>4275.6000000000004</v>
+        <v>3540.4</v>
       </c>
       <c r="O37">
-        <v>54404.2</v>
+        <v>16882.8</v>
       </c>
       <c r="P37">
-        <v>45435.199999999997</v>
+        <v>11083.9</v>
       </c>
       <c r="Q37">
-        <v>42.8</v>
+        <v>40.4</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>-8599.2000000000007</v>
+        <v>13189.6</v>
       </c>
       <c r="U37">
-        <v>1177.3</v>
+        <v>2201</v>
       </c>
       <c r="V37">
-        <v>2286.6999999999998</v>
+        <v>1822.2</v>
       </c>
       <c r="W37">
-        <v>-876.9</v>
+        <v>-541.20000000000005</v>
       </c>
       <c r="X37">
-        <v>-1577.6</v>
+        <v>-1388.1</v>
       </c>
       <c r="Y37">
-        <v>11881.8</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AA37">
-        <v>1607.9</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1572.2</v>
+        <v>1216.8</v>
       </c>
       <c r="D38">
-        <v>5428.2</v>
+        <v>5973.4</v>
       </c>
       <c r="E38">
-        <v>2224.1999999999998</v>
+        <v>1060.4000000000001</v>
       </c>
       <c r="F38">
-        <v>2867.7</v>
+        <v>2353.4</v>
       </c>
       <c r="G38">
-        <v>3557.9</v>
+        <v>3416.3</v>
       </c>
       <c r="H38">
-        <v>47510.8</v>
+        <v>30224.9</v>
       </c>
       <c r="I38">
-        <v>988.2</v>
+        <v>636</v>
       </c>
       <c r="J38">
-        <v>34118.1</v>
+        <v>10563.7</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,377 +3880,3697 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3621</v>
+        <v>2988.7</v>
       </c>
       <c r="O38">
-        <v>55721.1</v>
+        <v>16191</v>
       </c>
       <c r="P38">
-        <v>47556</v>
+        <v>10581.8</v>
       </c>
       <c r="Q38">
-        <v>-278.8</v>
+        <v>-405</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>205000</v>
+        <v>385000</v>
       </c>
       <c r="T38">
-        <v>-8210.2999999999993</v>
+        <v>14033.9</v>
       </c>
       <c r="U38">
-        <v>898.5</v>
+        <v>1796</v>
       </c>
       <c r="V38">
-        <v>1889.3</v>
+        <v>1378</v>
       </c>
       <c r="W38">
-        <v>-935.2</v>
+        <v>-593.1</v>
       </c>
       <c r="X38">
-        <v>-1441.8</v>
+        <v>-1207.3</v>
       </c>
       <c r="Y38">
-        <v>12757.8</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1572.2</v>
+        <v>1216.8</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1106.9000000000001</v>
+        <v>1089.8</v>
       </c>
       <c r="D39">
-        <v>4714.3999999999996</v>
+        <v>5610.1</v>
       </c>
       <c r="E39">
-        <v>1695.3</v>
+        <v>930</v>
       </c>
       <c r="F39">
-        <v>2341.9</v>
+        <v>2159.9</v>
       </c>
       <c r="G39">
-        <v>7556.9</v>
+        <v>3472.3</v>
       </c>
       <c r="H39">
-        <v>50568</v>
+        <v>29825.599999999999</v>
       </c>
       <c r="I39">
-        <v>671.9</v>
+        <v>472.1</v>
       </c>
       <c r="J39">
-        <v>38046.6</v>
+        <v>10483.200000000001</v>
       </c>
       <c r="K39">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-262.7</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>3987.8</v>
+        <v>2569.3000000000002</v>
       </c>
       <c r="O39">
-        <v>59861.4</v>
+        <v>15708.8</v>
       </c>
       <c r="P39">
-        <v>52311.5</v>
+        <v>10501.3</v>
       </c>
       <c r="Q39">
-        <v>4481.3</v>
+        <v>211.3</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-9293.4</v>
+        <v>14116.8</v>
       </c>
       <c r="U39">
-        <v>5379.8</v>
+        <v>2007.3</v>
       </c>
       <c r="V39">
-        <v>1546</v>
+        <v>1422.7</v>
       </c>
       <c r="W39">
-        <v>-930.7</v>
+        <v>-592</v>
       </c>
       <c r="X39">
-        <v>3533</v>
+        <v>-808.4</v>
       </c>
       <c r="Y39">
-        <v>12470.3</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>1106.9000000000001</v>
+        <v>1089.8</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>483.8</v>
+        <v>1225.8</v>
       </c>
       <c r="D40">
-        <v>3761.5</v>
+        <v>5945.5</v>
       </c>
       <c r="E40">
-        <v>2852.6</v>
+        <v>964.1</v>
       </c>
       <c r="F40">
-        <v>1725.3</v>
+        <v>2396.4</v>
       </c>
       <c r="G40">
-        <v>6609.4</v>
+        <v>3166.5</v>
       </c>
       <c r="H40">
-        <v>49938.9</v>
+        <v>28675.4</v>
       </c>
       <c r="I40">
-        <v>538.4</v>
+        <v>578</v>
       </c>
       <c r="J40">
-        <v>34675.599999999999</v>
+        <v>10291.299999999999</v>
       </c>
       <c r="K40">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-699.9</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>7246.1</v>
+        <v>2582.8000000000002</v>
       </c>
       <c r="O40">
-        <v>59402</v>
+        <v>15543.6</v>
       </c>
       <c r="P40">
-        <v>51922.3</v>
+        <v>10627</v>
       </c>
       <c r="Q40">
-        <v>-2124.1</v>
+        <v>-341.8</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>-9463.1</v>
+        <v>13131.8</v>
       </c>
       <c r="U40">
-        <v>3255.7</v>
+        <v>1665.5</v>
       </c>
       <c r="V40">
-        <v>-213.1</v>
+        <v>1248.7</v>
       </c>
       <c r="W40">
-        <v>-929.7</v>
+        <v>-589.1</v>
       </c>
       <c r="X40">
-        <v>-1577.9</v>
+        <v>-1122.3</v>
       </c>
       <c r="Y40">
-        <v>12478.9</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>483.8</v>
+        <v>1225.8</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1762.6</v>
+        <v>1388.4</v>
       </c>
       <c r="D41">
-        <v>5418.1</v>
+        <v>6304.9</v>
       </c>
       <c r="E41">
-        <v>2391.8000000000002</v>
+        <v>1013.6</v>
       </c>
       <c r="F41">
-        <v>2904.7</v>
+        <v>2606.5</v>
       </c>
       <c r="G41">
-        <v>6736.1</v>
+        <v>4176.5</v>
       </c>
       <c r="H41">
-        <v>50699.3</v>
+        <v>31168.5</v>
       </c>
       <c r="I41">
-        <v>689</v>
+        <v>596.5</v>
       </c>
       <c r="J41">
-        <v>35143.4</v>
+        <v>11357.1</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>-993.4</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-451.5</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>6280.2</v>
+        <v>3266.3</v>
       </c>
       <c r="O41">
-        <v>59171.4</v>
+        <v>17530.7</v>
       </c>
       <c r="P41">
-        <v>51286.400000000001</v>
+        <v>11436</v>
       </c>
       <c r="Q41">
-        <v>428.1</v>
+        <v>829.5</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>-8472.1</v>
+        <v>13637.8</v>
       </c>
       <c r="U41">
-        <v>3683.8</v>
+        <v>2495</v>
       </c>
       <c r="V41">
-        <v>2939.5</v>
+        <v>1944.4</v>
       </c>
       <c r="W41">
-        <v>-930.9</v>
+        <v>-583.5</v>
       </c>
       <c r="X41">
-        <v>-2268.5</v>
+        <v>-787.9</v>
       </c>
       <c r="Y41">
-        <v>12736</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>1762.6</v>
+        <v>1388.4</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>1242.3</v>
+      </c>
+      <c r="D42">
+        <v>6214.1</v>
+      </c>
+      <c r="E42">
+        <v>1179.0999999999999</v>
+      </c>
+      <c r="F42">
+        <v>2474.5</v>
+      </c>
+      <c r="G42">
+        <v>4368.5</v>
+      </c>
+      <c r="H42">
+        <v>31975.200000000001</v>
+      </c>
+      <c r="I42">
+        <v>943.9</v>
+      </c>
+      <c r="J42">
+        <v>11497.3</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2924.7</v>
+      </c>
+      <c r="O42">
+        <v>17341</v>
+      </c>
+      <c r="P42">
+        <v>11505.6</v>
+      </c>
+      <c r="Q42">
+        <v>-108</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>400000</v>
+      </c>
+      <c r="T42">
+        <v>14634.2</v>
+      </c>
+      <c r="U42">
+        <v>2387</v>
+      </c>
+      <c r="V42">
+        <v>1725.8</v>
+      </c>
+      <c r="W42">
+        <v>-643.5</v>
+      </c>
+      <c r="X42">
+        <v>-1010.1</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>1242.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>1209</v>
+      </c>
+      <c r="D43">
+        <v>6111.6</v>
+      </c>
+      <c r="E43">
+        <v>1160.3</v>
+      </c>
+      <c r="F43">
+        <v>2340.6</v>
+      </c>
+      <c r="G43">
+        <v>3824.2</v>
+      </c>
+      <c r="H43">
+        <v>32080.2</v>
+      </c>
+      <c r="I43">
+        <v>700.9</v>
+      </c>
+      <c r="J43">
+        <v>10530.7</v>
+      </c>
+      <c r="K43">
+        <v>597.29999999999995</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>4254.1000000000004</v>
+      </c>
+      <c r="O43">
+        <v>17626.599999999999</v>
+      </c>
+      <c r="P43">
+        <v>12047.1</v>
+      </c>
+      <c r="Q43">
+        <v>-447.1</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>14453.6</v>
+      </c>
+      <c r="U43">
+        <v>1939.9</v>
+      </c>
+      <c r="V43">
+        <v>1553.1</v>
+      </c>
+      <c r="W43">
+        <v>-635.1</v>
+      </c>
+      <c r="X43">
+        <v>-1512.3</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>1410.2</v>
+      </c>
+      <c r="D44">
+        <v>6905.4</v>
+      </c>
+      <c r="E44">
+        <v>1249.0999999999999</v>
+      </c>
+      <c r="F44">
+        <v>2725.6</v>
+      </c>
+      <c r="G44">
+        <v>4025.4</v>
+      </c>
+      <c r="H44">
+        <v>32833</v>
+      </c>
+      <c r="I44">
+        <v>709.9</v>
+      </c>
+      <c r="J44">
+        <v>11063.8</v>
+      </c>
+      <c r="K44">
+        <v>896.8</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3948.8</v>
+      </c>
+      <c r="O44">
+        <v>17880.2</v>
+      </c>
+      <c r="P44">
+        <v>12283.2</v>
+      </c>
+      <c r="Q44">
+        <v>130.1</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>14952.8</v>
+      </c>
+      <c r="U44">
+        <v>2070</v>
+      </c>
+      <c r="V44">
+        <v>1642.8</v>
+      </c>
+      <c r="W44">
+        <v>-632</v>
+      </c>
+      <c r="X44">
+        <v>-1125.4000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>1410.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>1507.3</v>
+      </c>
+      <c r="D45">
+        <v>7166.3</v>
+      </c>
+      <c r="E45">
+        <v>1203.9000000000001</v>
+      </c>
+      <c r="F45">
+        <v>2906.8</v>
+      </c>
+      <c r="G45">
+        <v>4421.8999999999996</v>
+      </c>
+      <c r="H45">
+        <v>32277.5</v>
+      </c>
+      <c r="I45">
+        <v>750.1</v>
+      </c>
+      <c r="J45">
+        <v>10998.6</v>
+      </c>
+      <c r="K45">
+        <v>816.1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>5078.2</v>
+      </c>
+      <c r="O45">
+        <v>18939.3</v>
+      </c>
+      <c r="P45">
+        <v>12540.1</v>
+      </c>
+      <c r="Q45">
+        <v>318.8</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>13338.2</v>
+      </c>
+      <c r="U45">
+        <v>2388.8000000000002</v>
+      </c>
+      <c r="V45">
+        <v>2169.6</v>
+      </c>
+      <c r="W45">
+        <v>-627.20000000000005</v>
+      </c>
+      <c r="X45">
+        <v>-978.3</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>1507.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1376.6</v>
+      </c>
+      <c r="D46">
+        <v>6822.7</v>
+      </c>
+      <c r="E46">
+        <v>1334.7</v>
+      </c>
+      <c r="F46">
+        <v>2713.6</v>
+      </c>
+      <c r="G46">
+        <v>4403</v>
+      </c>
+      <c r="H46">
+        <v>32989.9</v>
+      </c>
+      <c r="I46">
+        <v>961.3</v>
+      </c>
+      <c r="J46">
+        <v>12147.8</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3509.2</v>
+      </c>
+      <c r="O46">
+        <v>18599.7</v>
+      </c>
+      <c r="P46">
+        <v>12514.4</v>
+      </c>
+      <c r="Q46">
+        <v>-53.1</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>420000</v>
+      </c>
+      <c r="T46">
+        <v>14390.2</v>
+      </c>
+      <c r="U46">
+        <v>2335.6999999999998</v>
+      </c>
+      <c r="V46">
+        <v>1784.6</v>
+      </c>
+      <c r="W46">
+        <v>-715.4</v>
+      </c>
+      <c r="X46">
+        <v>-917</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>1376.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1266.7</v>
+      </c>
+      <c r="D47">
+        <v>6546.6</v>
+      </c>
+      <c r="E47">
+        <v>1234.4000000000001</v>
+      </c>
+      <c r="F47">
+        <v>2517.5</v>
+      </c>
+      <c r="G47">
+        <v>4254.8</v>
+      </c>
+      <c r="H47">
+        <v>33334.199999999997</v>
+      </c>
+      <c r="I47">
+        <v>708.3</v>
+      </c>
+      <c r="J47">
+        <v>12055.7</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3646.4</v>
+      </c>
+      <c r="O47">
+        <v>18673.7</v>
+      </c>
+      <c r="P47">
+        <v>12779.9</v>
+      </c>
+      <c r="Q47">
+        <v>-46.6</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>14660.5</v>
+      </c>
+      <c r="U47">
+        <v>2289.1</v>
+      </c>
+      <c r="V47">
+        <v>1633.5</v>
+      </c>
+      <c r="W47">
+        <v>-712.3</v>
+      </c>
+      <c r="X47">
+        <v>-1131.4000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>1266.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1347</v>
+      </c>
+      <c r="D48">
+        <v>6915.9</v>
+      </c>
+      <c r="E48">
+        <v>1290.5999999999999</v>
+      </c>
+      <c r="F48">
+        <v>2715.9</v>
+      </c>
+      <c r="G48">
+        <v>4500.1000000000004</v>
+      </c>
+      <c r="H48">
+        <v>33332.400000000001</v>
+      </c>
+      <c r="I48">
+        <v>823.4</v>
+      </c>
+      <c r="J48">
+        <v>12720.4</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3622.3</v>
+      </c>
+      <c r="O48">
+        <v>19297.3</v>
+      </c>
+      <c r="P48">
+        <v>13573.3</v>
+      </c>
+      <c r="Q48">
+        <v>195.5</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>14035.1</v>
+      </c>
+      <c r="U48">
+        <v>2484.6</v>
+      </c>
+      <c r="V48">
+        <v>1483.1</v>
+      </c>
+      <c r="W48">
+        <v>-709.3</v>
+      </c>
+      <c r="X48">
+        <v>-493.7</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1455</v>
+      </c>
+      <c r="D49">
+        <v>7152.4</v>
+      </c>
+      <c r="E49">
+        <v>1277.3</v>
+      </c>
+      <c r="F49">
+        <v>2854.6</v>
+      </c>
+      <c r="G49">
+        <v>4207.8999999999996</v>
+      </c>
+      <c r="H49">
+        <v>33824.5</v>
+      </c>
+      <c r="I49">
+        <v>833.6</v>
+      </c>
+      <c r="J49">
+        <v>12752</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-379.3</v>
+      </c>
+      <c r="N49">
+        <v>4151.3</v>
+      </c>
+      <c r="O49">
+        <v>19940.400000000001</v>
+      </c>
+      <c r="P49">
+        <v>13264.1</v>
+      </c>
+      <c r="Q49">
+        <v>-306.10000000000002</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>13884.1</v>
+      </c>
+      <c r="U49">
+        <v>2178.5</v>
+      </c>
+      <c r="V49">
+        <v>1999.4</v>
+      </c>
+      <c r="W49">
+        <v>-703.8</v>
+      </c>
+      <c r="X49">
+        <v>-1618.1</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1396.1</v>
+      </c>
+      <c r="D50">
+        <v>6952.1</v>
+      </c>
+      <c r="E50">
+        <v>1375.3</v>
+      </c>
+      <c r="F50">
+        <v>2728.3</v>
+      </c>
+      <c r="G50">
+        <v>4922.1000000000004</v>
+      </c>
+      <c r="H50">
+        <v>35386.5</v>
+      </c>
+      <c r="I50">
+        <v>1141.9000000000001</v>
+      </c>
+      <c r="J50">
+        <v>13632.5</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3403.1</v>
+      </c>
+      <c r="O50">
+        <v>20092.900000000001</v>
+      </c>
+      <c r="P50">
+        <v>13632.5</v>
+      </c>
+      <c r="Q50">
+        <v>157.6</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>440000</v>
+      </c>
+      <c r="T50">
+        <v>15293.6</v>
+      </c>
+      <c r="U50">
+        <v>2336.1</v>
+      </c>
+      <c r="V50">
+        <v>1850.1</v>
+      </c>
+      <c r="W50">
+        <v>-771.2</v>
+      </c>
+      <c r="X50">
+        <v>-606.6</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>1396.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1270.2</v>
+      </c>
+      <c r="D51">
+        <v>6605.3</v>
+      </c>
+      <c r="E51">
+        <v>1230</v>
+      </c>
+      <c r="F51">
+        <v>2484.1</v>
+      </c>
+      <c r="G51">
+        <v>4191.2</v>
+      </c>
+      <c r="H51">
+        <v>34123.800000000003</v>
+      </c>
+      <c r="I51">
+        <v>831.6</v>
+      </c>
+      <c r="J51">
+        <v>12797.9</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-622.4</v>
+      </c>
+      <c r="N51">
+        <v>3017.1</v>
+      </c>
+      <c r="O51">
+        <v>18895.599999999999</v>
+      </c>
+      <c r="P51">
+        <v>12797.9</v>
+      </c>
+      <c r="Q51">
+        <v>-466.8</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>15228.2</v>
+      </c>
+      <c r="U51">
+        <v>1869.3</v>
+      </c>
+      <c r="V51">
+        <v>1686.9</v>
+      </c>
+      <c r="W51">
+        <v>-772.2</v>
+      </c>
+      <c r="X51">
+        <v>-1568.9</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>1270.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1396.5</v>
+      </c>
+      <c r="D52">
+        <v>7083.8</v>
+      </c>
+      <c r="E52">
+        <v>1301.9000000000001</v>
+      </c>
+      <c r="F52">
+        <v>2765.2</v>
+      </c>
+      <c r="G52">
+        <v>4632.1000000000004</v>
+      </c>
+      <c r="H52">
+        <v>34453.4</v>
+      </c>
+      <c r="I52">
+        <v>805.2</v>
+      </c>
+      <c r="J52">
+        <v>13369.8</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2805</v>
+      </c>
+      <c r="O52">
+        <v>19282.7</v>
+      </c>
+      <c r="P52">
+        <v>13369.8</v>
+      </c>
+      <c r="Q52">
+        <v>409.1</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>15170.7</v>
+      </c>
+      <c r="U52">
+        <v>2278.4</v>
+      </c>
+      <c r="V52">
+        <v>1509.8</v>
+      </c>
+      <c r="W52">
+        <v>-771.1</v>
+      </c>
+      <c r="X52">
+        <v>-525</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>1396.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1522.2</v>
+      </c>
+      <c r="D53">
+        <v>7323.4</v>
+      </c>
+      <c r="E53">
+        <v>1285.3</v>
+      </c>
+      <c r="F53">
+        <v>2910.6</v>
+      </c>
+      <c r="G53">
+        <v>4734.1000000000004</v>
+      </c>
+      <c r="H53">
+        <v>35551.300000000003</v>
+      </c>
+      <c r="I53">
+        <v>858.3</v>
+      </c>
+      <c r="J53">
+        <v>13487.8</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-67.8</v>
+      </c>
+      <c r="N53">
+        <v>3822.3</v>
+      </c>
+      <c r="O53">
+        <v>20386.400000000001</v>
+      </c>
+      <c r="P53">
+        <v>13487.8</v>
+      </c>
+      <c r="Q53">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>15164.9</v>
+      </c>
+      <c r="U53">
+        <v>2544.3000000000002</v>
+      </c>
+      <c r="V53">
+        <v>2050.5</v>
+      </c>
+      <c r="W53">
+        <v>-767.5</v>
+      </c>
+      <c r="X53">
+        <v>-1301.5999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>1522.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>1397</v>
+      </c>
+      <c r="D54">
+        <v>7093.2</v>
+      </c>
+      <c r="E54">
+        <v>1319.8</v>
+      </c>
+      <c r="F54">
+        <v>2742.8</v>
+      </c>
+      <c r="G54">
+        <v>5050.1000000000004</v>
+      </c>
+      <c r="H54">
+        <v>36626.300000000003</v>
+      </c>
+      <c r="I54">
+        <v>1086</v>
+      </c>
+      <c r="J54">
+        <v>14141.8</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3170</v>
+      </c>
+      <c r="O54">
+        <v>20616.599999999999</v>
+      </c>
+      <c r="P54">
+        <v>14141.8</v>
+      </c>
+      <c r="Q54">
+        <v>254.4</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>440000</v>
+      </c>
+      <c r="T54">
+        <v>16009.7</v>
+      </c>
+      <c r="U54">
+        <v>2798.7</v>
+      </c>
+      <c r="V54">
+        <v>1873.5</v>
+      </c>
+      <c r="W54">
+        <v>-803.8</v>
+      </c>
+      <c r="X54">
+        <v>-647.5</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1204.8</v>
+      </c>
+      <c r="D55">
+        <v>6700.3</v>
+      </c>
+      <c r="E55">
+        <v>1229.7</v>
+      </c>
+      <c r="F55">
+        <v>2516.1</v>
+      </c>
+      <c r="G55">
+        <v>4836.3</v>
+      </c>
+      <c r="H55">
+        <v>36369.1</v>
+      </c>
+      <c r="I55">
+        <v>828.1</v>
+      </c>
+      <c r="J55">
+        <v>13825.4</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-235.1</v>
+      </c>
+      <c r="N55">
+        <v>3101.2</v>
+      </c>
+      <c r="O55">
+        <v>20221.400000000001</v>
+      </c>
+      <c r="P55">
+        <v>13926.8</v>
+      </c>
+      <c r="Q55">
+        <v>-54.9</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>16147.7</v>
+      </c>
+      <c r="U55">
+        <v>2743.8</v>
+      </c>
+      <c r="V55">
+        <v>1907.3</v>
+      </c>
+      <c r="W55">
+        <v>-801.7</v>
+      </c>
+      <c r="X55">
+        <v>-1355.1</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>1204.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>1387.1</v>
+      </c>
+      <c r="D56">
+        <v>7181.7</v>
+      </c>
+      <c r="E56">
+        <v>1294.5</v>
+      </c>
+      <c r="F56">
+        <v>2784.3</v>
+      </c>
+      <c r="G56">
+        <v>5913.7</v>
+      </c>
+      <c r="H56">
+        <v>37780.6</v>
+      </c>
+      <c r="I56">
+        <v>965.1</v>
+      </c>
+      <c r="J56">
+        <v>14891.4</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>-68.3</v>
+      </c>
+      <c r="M56">
+        <v>-1</v>
+      </c>
+      <c r="N56">
+        <v>3391.7</v>
+      </c>
+      <c r="O56">
+        <v>21625.7</v>
+      </c>
+      <c r="P56">
+        <v>15430.6</v>
+      </c>
+      <c r="Q56">
+        <v>926.8</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>16154.9</v>
+      </c>
+      <c r="U56">
+        <v>3670.6</v>
+      </c>
+      <c r="V56">
+        <v>1487</v>
+      </c>
+      <c r="W56">
+        <v>-800.6</v>
+      </c>
+      <c r="X56">
+        <v>51</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>1387.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1068.4000000000001</v>
+      </c>
+      <c r="D57">
+        <v>6987.1</v>
+      </c>
+      <c r="E57">
+        <v>1226.7</v>
+      </c>
+      <c r="F57">
+        <v>2681.2</v>
+      </c>
+      <c r="G57">
+        <v>5210.3999999999996</v>
+      </c>
+      <c r="H57">
+        <v>36020.800000000003</v>
+      </c>
+      <c r="I57">
+        <v>847.3</v>
+      </c>
+      <c r="J57">
+        <v>14516.9</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-6</v>
+      </c>
+      <c r="N57">
+        <v>4179.6000000000004</v>
+      </c>
+      <c r="O57">
+        <v>22394.9</v>
+      </c>
+      <c r="P57">
+        <v>15130.2</v>
+      </c>
+      <c r="Q57">
+        <v>-844.8</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>13625.9</v>
+      </c>
+      <c r="U57">
+        <v>2825.8</v>
+      </c>
+      <c r="V57">
+        <v>1832.9</v>
+      </c>
+      <c r="W57">
+        <v>-793</v>
+      </c>
+      <c r="X57">
+        <v>-1542.4</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>1068.4000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>1097.5</v>
+      </c>
+      <c r="D58">
+        <v>6572.2</v>
+      </c>
+      <c r="E58">
+        <v>1214.4000000000001</v>
+      </c>
+      <c r="F58">
+        <v>2474.1</v>
+      </c>
+      <c r="G58">
+        <v>4185.5</v>
+      </c>
+      <c r="H58">
+        <v>34227.4</v>
+      </c>
+      <c r="I58">
+        <v>860.1</v>
+      </c>
+      <c r="J58">
+        <v>14943.2</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2747.9</v>
+      </c>
+      <c r="O58">
+        <v>21374</v>
+      </c>
+      <c r="P58">
+        <v>14943.2</v>
+      </c>
+      <c r="Q58">
+        <v>-747.9</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>420000</v>
+      </c>
+      <c r="T58">
+        <v>12853.4</v>
+      </c>
+      <c r="U58">
+        <v>2077.9</v>
+      </c>
+      <c r="V58">
+        <v>1503.1</v>
+      </c>
+      <c r="W58">
+        <v>-820.8</v>
+      </c>
+      <c r="X58">
+        <v>-1771.8</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>1097.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>811.5</v>
+      </c>
+      <c r="D59">
+        <v>5958.9</v>
+      </c>
+      <c r="E59">
+        <v>1091.8</v>
+      </c>
+      <c r="F59">
+        <v>2201</v>
+      </c>
+      <c r="G59">
+        <v>3592.8</v>
+      </c>
+      <c r="H59">
+        <v>32155.599999999999</v>
+      </c>
+      <c r="I59">
+        <v>702</v>
+      </c>
+      <c r="J59">
+        <v>14291.8</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-545.29999999999995</v>
+      </c>
+      <c r="N59">
+        <v>2751.9</v>
+      </c>
+      <c r="O59">
+        <v>20752.3</v>
+      </c>
+      <c r="P59">
+        <v>14291.8</v>
+      </c>
+      <c r="Q59">
+        <v>-443.1</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>11403.3</v>
+      </c>
+      <c r="U59">
+        <v>1634.8</v>
+      </c>
+      <c r="V59">
+        <v>1699.5</v>
+      </c>
+      <c r="W59">
+        <v>-816.3</v>
+      </c>
+      <c r="X59">
+        <v>-1593.3</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>811.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>1202.4000000000001</v>
+      </c>
+      <c r="D60">
+        <v>6497.7</v>
+      </c>
+      <c r="E60">
+        <v>1178.5999999999999</v>
+      </c>
+      <c r="F60">
+        <v>2490.4</v>
+      </c>
+      <c r="G60">
+        <v>5972.2</v>
+      </c>
+      <c r="H60">
+        <v>34947.9</v>
+      </c>
+      <c r="I60">
+        <v>840.1</v>
+      </c>
+      <c r="J60">
+        <v>17901.599999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>-293.8</v>
+      </c>
+      <c r="M60">
+        <v>-501.4</v>
+      </c>
+      <c r="N60">
+        <v>2760.8</v>
+      </c>
+      <c r="O60">
+        <v>24387</v>
+      </c>
+      <c r="P60">
+        <v>17901.599999999999</v>
+      </c>
+      <c r="Q60">
+        <v>2363.6999999999998</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>10560.9</v>
+      </c>
+      <c r="U60">
+        <v>3998.5</v>
+      </c>
+      <c r="V60">
+        <v>1513.5</v>
+      </c>
+      <c r="W60">
+        <v>-811</v>
+      </c>
+      <c r="X60">
+        <v>1087.5999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>1202.4000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>1309.2</v>
+      </c>
+      <c r="D61">
+        <v>6615.1</v>
+      </c>
+      <c r="E61">
+        <v>1136.2</v>
+      </c>
+      <c r="F61">
+        <v>2591.3000000000002</v>
+      </c>
+      <c r="G61">
+        <v>4492.6000000000004</v>
+      </c>
+      <c r="H61">
+        <v>32959.5</v>
+      </c>
+      <c r="I61">
+        <v>802.6</v>
+      </c>
+      <c r="J61">
+        <v>17990.5</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-6.2</v>
+      </c>
+      <c r="N61">
+        <v>2956.5</v>
+      </c>
+      <c r="O61">
+        <v>24649.7</v>
+      </c>
+      <c r="P61">
+        <v>17990.5</v>
+      </c>
+      <c r="Q61">
+        <v>-1546</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>8309.7999999999993</v>
+      </c>
+      <c r="U61">
+        <v>2452.5</v>
+      </c>
+      <c r="V61">
+        <v>1947.4</v>
+      </c>
+      <c r="W61">
+        <v>-789.1</v>
+      </c>
+      <c r="X61">
+        <v>-2978.6</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>1309.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>1206.2</v>
+      </c>
+      <c r="D62">
+        <v>6341.3</v>
+      </c>
+      <c r="E62">
+        <v>1298.7</v>
+      </c>
+      <c r="F62">
+        <v>2506.5</v>
+      </c>
+      <c r="G62">
+        <v>9643</v>
+      </c>
+      <c r="H62">
+        <v>37938.699999999997</v>
+      </c>
+      <c r="I62">
+        <v>874.7</v>
+      </c>
+      <c r="J62">
+        <v>24125.5</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2950.4</v>
+      </c>
+      <c r="O62">
+        <v>30850.799999999999</v>
+      </c>
+      <c r="P62">
+        <v>24125.5</v>
+      </c>
+      <c r="Q62">
+        <v>5233</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>420000</v>
+      </c>
+      <c r="T62">
+        <v>7087.9</v>
+      </c>
+      <c r="U62">
+        <v>7685.5</v>
+      </c>
+      <c r="V62">
+        <v>1378.7</v>
+      </c>
+      <c r="W62">
+        <v>-813.9</v>
+      </c>
+      <c r="X62">
+        <v>4219.6000000000004</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>1206.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>1124.8</v>
+      </c>
+      <c r="D63">
+        <v>5903.9</v>
+      </c>
+      <c r="E63">
+        <v>1162.0999999999999</v>
+      </c>
+      <c r="F63">
+        <v>2313.5</v>
+      </c>
+      <c r="G63">
+        <v>5051.6000000000004</v>
+      </c>
+      <c r="H63">
+        <v>33795.4</v>
+      </c>
+      <c r="I63">
+        <v>654.5</v>
+      </c>
+      <c r="J63">
+        <v>23352.6</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-809.6</v>
+      </c>
+      <c r="M63">
+        <v>-213.5</v>
+      </c>
+      <c r="N63">
+        <v>2858.7</v>
+      </c>
+      <c r="O63">
+        <v>29932.400000000001</v>
+      </c>
+      <c r="P63">
+        <v>23352.6</v>
+      </c>
+      <c r="Q63">
+        <v>-4375.3999999999996</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3863</v>
+      </c>
+      <c r="U63">
+        <v>3310.1</v>
+      </c>
+      <c r="V63">
+        <v>1745.2</v>
+      </c>
+      <c r="W63">
+        <v>-780.8</v>
+      </c>
+      <c r="X63">
+        <v>-5978.7</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>1124.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>1092.9000000000001</v>
+      </c>
+      <c r="D64">
+        <v>6265</v>
+      </c>
+      <c r="E64">
+        <v>1267.0999999999999</v>
+      </c>
+      <c r="F64">
+        <v>2586</v>
+      </c>
+      <c r="G64">
+        <v>5046.6000000000004</v>
+      </c>
+      <c r="H64">
+        <v>33146.5</v>
+      </c>
+      <c r="I64">
+        <v>574.6</v>
+      </c>
+      <c r="J64">
+        <v>26010</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-600.4</v>
+      </c>
+      <c r="N64">
+        <v>2667.2</v>
+      </c>
+      <c r="O64">
+        <v>32506.5</v>
+      </c>
+      <c r="P64">
+        <v>26010</v>
+      </c>
+      <c r="Q64">
+        <v>-182.1</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>640</v>
+      </c>
+      <c r="U64">
+        <v>3128</v>
+      </c>
+      <c r="V64">
+        <v>1248.4000000000001</v>
+      </c>
+      <c r="W64">
+        <v>-759.3</v>
+      </c>
+      <c r="X64">
+        <v>-1136.8</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>1092.9000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1275.4000000000001</v>
+      </c>
+      <c r="D65">
+        <v>6424.1</v>
+      </c>
+      <c r="E65">
+        <v>1349.8</v>
+      </c>
+      <c r="F65">
+        <v>2747</v>
+      </c>
+      <c r="G65">
+        <v>4302.1000000000004</v>
+      </c>
+      <c r="H65">
+        <v>32486.9</v>
+      </c>
+      <c r="I65">
+        <v>852.2</v>
+      </c>
+      <c r="J65">
+        <v>26007</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>-80</v>
+      </c>
+      <c r="M65">
+        <v>-5.7</v>
+      </c>
+      <c r="N65">
+        <v>4476.7</v>
+      </c>
+      <c r="O65">
+        <v>34111</v>
+      </c>
+      <c r="P65">
+        <v>26007</v>
+      </c>
+      <c r="Q65">
+        <v>-861.3</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>-1624.1</v>
+      </c>
+      <c r="U65">
+        <v>2266.6999999999998</v>
+      </c>
+      <c r="V65">
+        <v>2251.1</v>
+      </c>
+      <c r="W65">
+        <v>-745.1</v>
+      </c>
+      <c r="X65">
+        <v>-2775.7</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>1275.4000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>1193.4000000000001</v>
+      </c>
+      <c r="D66">
+        <v>6028.9</v>
+      </c>
+      <c r="E66">
+        <v>1474.1</v>
+      </c>
+      <c r="F66">
+        <v>2558.1999999999998</v>
+      </c>
+      <c r="G66">
+        <v>4848.6000000000004</v>
+      </c>
+      <c r="H66">
+        <v>31023.9</v>
+      </c>
+      <c r="I66">
+        <v>756</v>
+      </c>
+      <c r="J66">
+        <v>25880.1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3468.3</v>
+      </c>
+      <c r="O66">
+        <v>33228.199999999997</v>
+      </c>
+      <c r="P66">
+        <v>25957.3</v>
+      </c>
+      <c r="Q66">
+        <v>-1043.3</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>375000</v>
+      </c>
+      <c r="T66">
+        <v>-2204.3000000000002</v>
+      </c>
+      <c r="U66">
+        <v>1223.4000000000001</v>
+      </c>
+      <c r="V66">
+        <v>814.9</v>
+      </c>
+      <c r="W66">
+        <v>-773</v>
+      </c>
+      <c r="X66">
+        <v>-1371.2</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>1193.4000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>1214.8</v>
+      </c>
+      <c r="D67">
+        <v>5675.9</v>
+      </c>
+      <c r="E67">
+        <v>1336.7</v>
+      </c>
+      <c r="F67">
+        <v>2429.4</v>
+      </c>
+      <c r="G67">
+        <v>5907.2</v>
+      </c>
+      <c r="H67">
+        <v>32120.3</v>
+      </c>
+      <c r="I67">
+        <v>678.4</v>
+      </c>
+      <c r="J67">
+        <v>26984.2</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>-769.2</v>
+      </c>
+      <c r="M67">
+        <v>-402.1</v>
+      </c>
+      <c r="N67">
+        <v>3220.7</v>
+      </c>
+      <c r="O67">
+        <v>34151.1</v>
+      </c>
+      <c r="P67">
+        <v>27207.1</v>
+      </c>
+      <c r="Q67">
+        <v>1188.8</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>-2030.8</v>
+      </c>
+      <c r="U67">
+        <v>2412.1999999999998</v>
+      </c>
+      <c r="V67">
+        <v>1544</v>
+      </c>
+      <c r="W67">
+        <v>-770.6</v>
+      </c>
+      <c r="X67">
+        <v>-587.20000000000005</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>1214.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>1395.1</v>
+      </c>
+      <c r="D68">
+        <v>6049.7</v>
+      </c>
+      <c r="E68">
+        <v>1457.3</v>
+      </c>
+      <c r="F68">
+        <v>2708.4</v>
+      </c>
+      <c r="G68">
+        <v>5892.5</v>
+      </c>
+      <c r="H68">
+        <v>32785.199999999997</v>
+      </c>
+      <c r="I68">
+        <v>536</v>
+      </c>
+      <c r="J68">
+        <v>28150.9</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="M68">
+        <v>-1.4</v>
+      </c>
+      <c r="N68">
+        <v>2743.3</v>
+      </c>
+      <c r="O68">
+        <v>34785.800000000003</v>
+      </c>
+      <c r="P68">
+        <v>28360.799999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-19.8</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>-2000.6</v>
+      </c>
+      <c r="U68">
+        <v>2392.4</v>
+      </c>
+      <c r="V68">
+        <v>1213.4000000000001</v>
+      </c>
+      <c r="W68">
+        <v>-761.5</v>
+      </c>
+      <c r="X68">
+        <v>-1166.5</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>1395.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>1883.7</v>
+      </c>
+      <c r="D69">
+        <v>5754.6</v>
+      </c>
+      <c r="E69">
+        <v>1569</v>
+      </c>
+      <c r="F69">
+        <v>2817.5</v>
+      </c>
+      <c r="G69">
+        <v>4790.3</v>
+      </c>
+      <c r="H69">
+        <v>32559.599999999999</v>
+      </c>
+      <c r="I69">
+        <v>685.2</v>
+      </c>
+      <c r="J69">
+        <v>28402.6</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>-55.8</v>
+      </c>
+      <c r="M69">
+        <v>-3.6</v>
+      </c>
+      <c r="N69">
+        <v>3740.2</v>
+      </c>
+      <c r="O69">
+        <v>36037.199999999997</v>
+      </c>
+      <c r="P69">
+        <v>28618.400000000001</v>
+      </c>
+      <c r="Q69">
+        <v>278.8</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>-3477.6</v>
+      </c>
+      <c r="U69">
+        <v>2671.2</v>
+      </c>
+      <c r="V69">
+        <v>1684.5</v>
+      </c>
+      <c r="W69">
+        <v>-755.3</v>
+      </c>
+      <c r="X69">
+        <v>-2810</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>1883.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>698.7</v>
+      </c>
+      <c r="D70">
+        <v>5340.2</v>
+      </c>
+      <c r="E70">
+        <v>1976.2</v>
+      </c>
+      <c r="F70">
+        <v>2665.5</v>
+      </c>
+      <c r="G70">
+        <v>5327.2</v>
+      </c>
+      <c r="H70">
+        <v>33803.699999999997</v>
+      </c>
+      <c r="I70">
+        <v>924.8</v>
+      </c>
+      <c r="J70">
+        <v>29542.3</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2890.6</v>
+      </c>
+      <c r="O70">
+        <v>37071.699999999997</v>
+      </c>
+      <c r="P70">
+        <v>29542.6</v>
+      </c>
+      <c r="Q70">
+        <v>-207.4</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>235000</v>
+      </c>
+      <c r="T70">
+        <v>-3268</v>
+      </c>
+      <c r="U70">
+        <v>2463.8000000000002</v>
+      </c>
+      <c r="V70">
+        <v>1109.3</v>
+      </c>
+      <c r="W70">
+        <v>-801.8</v>
+      </c>
+      <c r="X70">
+        <v>-747.1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>698.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1375.4</v>
+      </c>
+      <c r="D71">
+        <v>5138.8999999999996</v>
+      </c>
+      <c r="E71">
+        <v>1951.6</v>
+      </c>
+      <c r="F71">
+        <v>2527.6999999999998</v>
+      </c>
+      <c r="G71">
+        <v>4909.3</v>
+      </c>
+      <c r="H71">
+        <v>33722.9</v>
+      </c>
+      <c r="I71">
+        <v>779.9</v>
+      </c>
+      <c r="J71">
+        <v>30887</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-1001.6</v>
+      </c>
+      <c r="N71">
+        <v>2821.4</v>
+      </c>
+      <c r="O71">
+        <v>38441.699999999997</v>
+      </c>
+      <c r="P71">
+        <v>30888</v>
+      </c>
+      <c r="Q71">
+        <v>4.2</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-4718.8</v>
+      </c>
+      <c r="U71">
+        <v>2468</v>
+      </c>
+      <c r="V71">
+        <v>1645.2</v>
+      </c>
+      <c r="W71">
+        <v>-797.5</v>
+      </c>
+      <c r="X71">
+        <v>-1306.2</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>1375.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1496.3</v>
+      </c>
+      <c r="D72">
+        <v>5353.9</v>
+      </c>
+      <c r="E72">
+        <v>2217.1999999999998</v>
+      </c>
+      <c r="F72">
+        <v>2739.5</v>
+      </c>
+      <c r="G72">
+        <v>4355.6000000000004</v>
+      </c>
+      <c r="H72">
+        <v>32708.400000000001</v>
+      </c>
+      <c r="I72">
+        <v>917.9</v>
+      </c>
+      <c r="J72">
+        <v>30709.3</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-1.2</v>
+      </c>
+      <c r="N72">
+        <v>2970.3</v>
+      </c>
+      <c r="O72">
+        <v>38559.4</v>
+      </c>
+      <c r="P72">
+        <v>31002.3</v>
+      </c>
+      <c r="Q72">
+        <v>-844.5</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-5851</v>
+      </c>
+      <c r="U72">
+        <v>1623.5</v>
+      </c>
+      <c r="V72">
+        <v>1338.8</v>
+      </c>
+      <c r="W72">
+        <v>-786.1</v>
+      </c>
+      <c r="X72">
+        <v>-1564.2</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>1496.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1637.3</v>
+      </c>
+      <c r="D73">
+        <v>5369.4</v>
+      </c>
+      <c r="E73">
+        <v>2266.8000000000002</v>
+      </c>
+      <c r="F73">
+        <v>2822.1</v>
+      </c>
+      <c r="G73">
+        <v>5553.1</v>
+      </c>
+      <c r="H73">
+        <v>34053.699999999997</v>
+      </c>
+      <c r="I73">
+        <v>932.8</v>
+      </c>
+      <c r="J73">
+        <v>31922.9</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>-801.4</v>
+      </c>
+      <c r="M73">
+        <v>-1.9</v>
+      </c>
+      <c r="N73">
+        <v>3626.7</v>
+      </c>
+      <c r="O73">
+        <v>40846.300000000003</v>
+      </c>
+      <c r="P73">
+        <v>31923.5</v>
+      </c>
+      <c r="Q73">
+        <v>951</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>-6792.6</v>
+      </c>
+      <c r="U73">
+        <v>2574.5</v>
+      </c>
+      <c r="V73">
+        <v>2471.1</v>
+      </c>
+      <c r="W73">
+        <v>-779.8</v>
+      </c>
+      <c r="X73">
+        <v>-768</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>1637.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>1415.3</v>
+      </c>
+      <c r="D74">
+        <v>5163</v>
+      </c>
+      <c r="E74">
+        <v>2441.5</v>
+      </c>
+      <c r="F74">
+        <v>2696.7</v>
+      </c>
+      <c r="G74">
+        <v>4053.2</v>
+      </c>
+      <c r="H74">
+        <v>32811.199999999997</v>
+      </c>
+      <c r="I74">
+        <v>1207.9000000000001</v>
+      </c>
+      <c r="J74">
+        <v>31087.1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2973.5</v>
+      </c>
+      <c r="O74">
+        <v>39069.599999999999</v>
+      </c>
+      <c r="P74">
+        <v>31087.200000000001</v>
+      </c>
+      <c r="Q74">
+        <v>-1708.5</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>210000</v>
+      </c>
+      <c r="T74">
+        <v>-6258.4</v>
+      </c>
+      <c r="U74">
+        <v>866</v>
+      </c>
+      <c r="V74">
+        <v>1511.6</v>
+      </c>
+      <c r="W74">
+        <v>-892.5</v>
+      </c>
+      <c r="X74">
+        <v>-2311.1999999999998</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>1415.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1328.4</v>
+      </c>
+      <c r="D75">
+        <v>5024.1000000000004</v>
+      </c>
+      <c r="E75">
+        <v>1992.7</v>
+      </c>
+      <c r="F75">
+        <v>2551.5</v>
+      </c>
+      <c r="G75">
+        <v>4964.3999999999996</v>
+      </c>
+      <c r="H75">
+        <v>46466.6</v>
+      </c>
+      <c r="I75">
+        <v>823.6</v>
+      </c>
+      <c r="J75">
+        <v>32896.699999999997</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-94</v>
+      </c>
+      <c r="M75">
+        <v>-415</v>
+      </c>
+      <c r="N75">
+        <v>3379.6</v>
+      </c>
+      <c r="O75">
+        <v>53017.5</v>
+      </c>
+      <c r="P75">
+        <v>45294.1</v>
+      </c>
+      <c r="Q75">
+        <v>1423.1</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-6550.9</v>
+      </c>
+      <c r="U75">
+        <v>2289.1</v>
+      </c>
+      <c r="V75">
+        <v>2020.6</v>
+      </c>
+      <c r="W75">
+        <v>-886.8</v>
+      </c>
+      <c r="X75">
+        <v>220.7</v>
+      </c>
+      <c r="Y75">
+        <v>11629.5</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>1328.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1516.9</v>
+      </c>
+      <c r="D76">
+        <v>5409.8</v>
+      </c>
+      <c r="E76">
+        <v>2055</v>
+      </c>
+      <c r="F76">
+        <v>2842.6</v>
+      </c>
+      <c r="G76">
+        <v>3915.4</v>
+      </c>
+      <c r="H76">
+        <v>46199.8</v>
+      </c>
+      <c r="I76">
+        <v>796.8</v>
+      </c>
+      <c r="J76">
+        <v>32654.3</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>-981.2</v>
+      </c>
+      <c r="N76">
+        <v>3240</v>
+      </c>
+      <c r="O76">
+        <v>53008.6</v>
+      </c>
+      <c r="P76">
+        <v>45293.1</v>
+      </c>
+      <c r="Q76">
+        <v>-1154.5999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-6808.8</v>
+      </c>
+      <c r="U76">
+        <v>1134.5</v>
+      </c>
+      <c r="V76">
+        <v>1925.5</v>
+      </c>
+      <c r="W76">
+        <v>-883</v>
+      </c>
+      <c r="X76">
+        <v>-2196.1</v>
+      </c>
+      <c r="Y76">
+        <v>11895.4</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>1516.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1607.9</v>
+      </c>
+      <c r="D77">
+        <v>5502.3</v>
+      </c>
+      <c r="E77">
+        <v>2005.3</v>
+      </c>
+      <c r="F77">
+        <v>2917.6</v>
+      </c>
+      <c r="G77">
+        <v>3604.9</v>
+      </c>
+      <c r="H77">
+        <v>45805</v>
+      </c>
+      <c r="I77">
+        <v>849.5</v>
+      </c>
+      <c r="J77">
+        <v>32850.1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>-600.70000000000005</v>
+      </c>
+      <c r="M77">
+        <v>-667.9</v>
+      </c>
+      <c r="N77">
+        <v>4275.6000000000004</v>
+      </c>
+      <c r="O77">
+        <v>54404.2</v>
+      </c>
+      <c r="P77">
+        <v>45435.199999999997</v>
+      </c>
+      <c r="Q77">
+        <v>42.8</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-8599.2000000000007</v>
+      </c>
+      <c r="U77">
+        <v>1177.3</v>
+      </c>
+      <c r="V77">
+        <v>2286.6999999999998</v>
+      </c>
+      <c r="W77">
+        <v>-876.9</v>
+      </c>
+      <c r="X77">
+        <v>-1577.6</v>
+      </c>
+      <c r="Y77">
+        <v>11881.8</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>1607.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1572.2</v>
+      </c>
+      <c r="D78">
+        <v>5428.2</v>
+      </c>
+      <c r="E78">
+        <v>2224.1999999999998</v>
+      </c>
+      <c r="F78">
+        <v>2867.7</v>
+      </c>
+      <c r="G78">
+        <v>3557.9</v>
+      </c>
+      <c r="H78">
+        <v>47510.8</v>
+      </c>
+      <c r="I78">
+        <v>988.2</v>
+      </c>
+      <c r="J78">
+        <v>34118.1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3621</v>
+      </c>
+      <c r="O78">
+        <v>55721.1</v>
+      </c>
+      <c r="P78">
+        <v>47556</v>
+      </c>
+      <c r="Q78">
+        <v>-278.8</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>205000</v>
+      </c>
+      <c r="T78">
+        <v>-8210.2999999999993</v>
+      </c>
+      <c r="U78">
+        <v>898.5</v>
+      </c>
+      <c r="V78">
+        <v>1889.3</v>
+      </c>
+      <c r="W78">
+        <v>-935.2</v>
+      </c>
+      <c r="X78">
+        <v>-1441.8</v>
+      </c>
+      <c r="Y78">
+        <v>12757.8</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>1572.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>1106.9000000000001</v>
+      </c>
+      <c r="D79">
+        <v>4714.3999999999996</v>
+      </c>
+      <c r="E79">
+        <v>1695.3</v>
+      </c>
+      <c r="F79">
+        <v>2341.9</v>
+      </c>
+      <c r="G79">
+        <v>7556.9</v>
+      </c>
+      <c r="H79">
+        <v>50568</v>
+      </c>
+      <c r="I79">
+        <v>671.9</v>
+      </c>
+      <c r="J79">
+        <v>38046.6</v>
+      </c>
+      <c r="K79">
+        <v>1000</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-262.7</v>
+      </c>
+      <c r="N79">
+        <v>3987.8</v>
+      </c>
+      <c r="O79">
+        <v>59861.4</v>
+      </c>
+      <c r="P79">
+        <v>52311.5</v>
+      </c>
+      <c r="Q79">
+        <v>4481.3</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-9293.4</v>
+      </c>
+      <c r="U79">
+        <v>5379.8</v>
+      </c>
+      <c r="V79">
+        <v>1546</v>
+      </c>
+      <c r="W79">
+        <v>-930.7</v>
+      </c>
+      <c r="X79">
+        <v>3533</v>
+      </c>
+      <c r="Y79">
+        <v>12470.3</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>1106.9000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>483.8</v>
+      </c>
+      <c r="D80">
+        <v>3761.5</v>
+      </c>
+      <c r="E80">
+        <v>2852.6</v>
+      </c>
+      <c r="F80">
+        <v>1725.3</v>
+      </c>
+      <c r="G80">
+        <v>6609.4</v>
+      </c>
+      <c r="H80">
+        <v>49938.9</v>
+      </c>
+      <c r="I80">
+        <v>538.4</v>
+      </c>
+      <c r="J80">
+        <v>34675.599999999999</v>
+      </c>
+      <c r="K80">
+        <v>1000</v>
+      </c>
+      <c r="L80">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="M80">
+        <v>-699.9</v>
+      </c>
+      <c r="N80">
+        <v>7246.1</v>
+      </c>
+      <c r="O80">
+        <v>59402</v>
+      </c>
+      <c r="P80">
+        <v>51922.3</v>
+      </c>
+      <c r="Q80">
+        <v>-2124.1</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-9463.1</v>
+      </c>
+      <c r="U80">
+        <v>3255.7</v>
+      </c>
+      <c r="V80">
+        <v>-213.1</v>
+      </c>
+      <c r="W80">
+        <v>-929.7</v>
+      </c>
+      <c r="X80">
+        <v>-1577.9</v>
+      </c>
+      <c r="Y80">
+        <v>12478.9</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>483.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1762.6</v>
+      </c>
+      <c r="D81">
+        <v>5418.1</v>
+      </c>
+      <c r="E81">
+        <v>2391.8000000000002</v>
+      </c>
+      <c r="F81">
+        <v>2904.7</v>
+      </c>
+      <c r="G81">
+        <v>6736.1</v>
+      </c>
+      <c r="H81">
+        <v>50699.3</v>
+      </c>
+      <c r="I81">
+        <v>689</v>
+      </c>
+      <c r="J81">
+        <v>35143.4</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>-993.4</v>
+      </c>
+      <c r="M81">
+        <v>-451.5</v>
+      </c>
+      <c r="N81">
+        <v>6280.2</v>
+      </c>
+      <c r="O81">
+        <v>59171.4</v>
+      </c>
+      <c r="P81">
+        <v>51286.400000000001</v>
+      </c>
+      <c r="Q81">
+        <v>428.1</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>-8472.1</v>
+      </c>
+      <c r="U81">
+        <v>3683.8</v>
+      </c>
+      <c r="V81">
+        <v>2939.5</v>
+      </c>
+      <c r="W81">
+        <v>-930.9</v>
+      </c>
+      <c r="X81">
+        <v>-2268.5</v>
+      </c>
+      <c r="Y81">
+        <v>12736</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>1762.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1377.2</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5313.8</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2110.3000000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2780.2</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>6243.2</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>52626.8</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>741.3</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>35196.800000000003</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>6181.2</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>60451.7</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>51463.199999999997</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-234.7</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>200000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>-7824.9</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3449.1</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1992.8</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-961.6</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-1935.6</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>13321.3</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>1377.2</v>
       </c>
     </row>
